--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\2026_GGJ\Assets\StreamingAssets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15439\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08733276-DB78-4AA0-B4D1-38F4095F828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4891CB-967F-45C2-9102-2AA1E40C0D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事件1" sheetId="1" r:id="rId1"/>
+    <sheet name="注释文档" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="200">
   <si>
     <t>标志</t>
   </si>
@@ -459,6 +460,323 @@
   </si>
   <si>
     <t>costtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（分析局势）</t>
+  </si>
+  <si>
+    <t>愤怒面具（坚决否定）</t>
+  </si>
+  <si>
+    <t>快乐面具（爽快答应）</t>
+  </si>
+  <si>
+    <t>悲伤面具（消极对待）</t>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急急急！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加的照相系统有严重BUG！！！加了以后会和原来一个功能起冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你别着急，先debug一下，再不济就不要这个功能了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以的！！！干巴爹捏！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草…真是一堆事儿，不想管了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我草！！！！！！！！！！！！&amp;*&amp;……%……*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（冷静寻求解法）</t>
+  </si>
+  <si>
+    <t>愤怒面具（对电脑无能狂怒）</t>
+  </si>
+  <si>
+    <t>快乐面具（化身夸夸王，鼓励程序）</t>
+  </si>
+  <si>
+    <t>跳转逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK，我再看看，我写了四五千行的代码可不想丢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启一下居然好了......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别急，急也没用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哟西！冲刺！果然有效！你滴鼓励让我迅速找到了问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你这人能不能有点责任心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画不完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么策划又加新东西了，我以为只用画一个icon的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要不你跟策划商量一下，少画点？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实，我对你是有一些失望的。当初让你做美术，是高于你面试时的水平的。我是希望进来后，你能够拼一把，快速成长起来的。你这个层级，不是把事情做了就可以的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画不完就不画了，一起摆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 愤怒面具（给美术上压力）</t>
+  </si>
+  <si>
+    <t>快乐面具（化身夸夸王，鼓励美术）</t>
+  </si>
+  <si>
+    <t>算惹，不想沟通，我画就是了Orz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你怎么知道我喜欢跟人唱反调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你越压力我我越要干，冲刺冲刺冲！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好恶心，不要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太好了，一起摆烂吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做锤子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做不了捏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做等死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真是冷漠，走了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（不）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 愤怒面具（锤子）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 快乐面具（捏）</t>
+  </si>
+  <si>
+    <t>现在去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[一段锤子敲击的音效]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐等ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟你说了我不想干了，什么GGJ模拟器我也不想做了，策划一天天就是来这干杂活，好不容易有点想法还要被各种否定，不干了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咱们捋一捋啊——说实话，开会你提的那些框架，最后落地效果都好得出奇。很多我们觉得会卡壳的地方，你早就在方案里埋好解了。你要是走了，后面这摊子真没人能接得住。你还是很重要的，只不过这个需求如果加了真的有可能赶不上进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱干干，不干就滚！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你提那个需求我真仔细琢磨了，我觉得真行，就是我们这次时间实在是太紧张了，要不我肯定就塞了，这样吧，明天奶茶我请，这个系统我们下次一定做。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕子呜呜呜呜~不是我不想做你的需求，是真的没有时间啊呜呜呜呜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（理性分析）</t>
+  </si>
+  <si>
+    <t>愤怒面具（开始攻击）</t>
+  </si>
+  <si>
+    <t>快乐面具（鼓励安抚）</t>
+  </si>
+  <si>
+    <t>悲伤面具（以泪洗面）</t>
+  </si>
+  <si>
+    <t>唉，，，你都这么说了，那还说啥了，这次就不做这个了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以大橘为重.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚就滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁稀罕跟你组一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果5013或5021触发，则跳转——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果5017触发，则跳转——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果5019触发，则跳转——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞定了！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总算弄完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真不容易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一张！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画完了！！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +784,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,22 +810,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -620,9 +922,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -639,19 +941,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,11 +953,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -971,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I194" sqref="I194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -983,11 +1288,11 @@
     <col min="2" max="2" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="4.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="59.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.08984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.90625" style="14" customWidth="1"/>
     <col min="10" max="10" width="30.7265625" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.1796875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.7265625" style="1"/>
@@ -1009,7 +1314,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1024,7 +1329,7 @@
       <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -1047,7 +1352,7 @@
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="5">
@@ -1056,7 +1361,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="K2" s="12"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1071,7 +1376,7 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="5">
@@ -1080,7 +1385,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="K3" s="12"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1095,7 +1400,7 @@
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="5">
@@ -1104,7 +1409,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="K4" s="12"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1119,15 +1424,17 @@
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="5">
         <v>1005</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="K5" s="12" t="s">
+      <c r="I5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1144,15 +1451,17 @@
       <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="5">
         <v>1008</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="K6" s="12" t="s">
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1169,15 +1478,17 @@
       <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="5">
         <v>1010</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="K7" s="12" t="s">
+      <c r="I7" s="5">
+        <v>3</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1194,15 +1505,17 @@
       <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="5">
         <v>1012</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="K8" s="12" t="s">
+      <c r="I8" s="5">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1219,10 +1532,10 @@
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="13">
         <v>1006</v>
       </c>
       <c r="G9" s="5"/>
@@ -1242,10 +1555,10 @@
       <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="13">
         <v>1007</v>
       </c>
       <c r="G10" s="5"/>
@@ -1265,10 +1578,10 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="13">
         <v>1014</v>
       </c>
       <c r="G11" s="5"/>
@@ -1288,10 +1601,10 @@
       <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="13">
         <v>1009</v>
       </c>
       <c r="G12" s="5"/>
@@ -1311,7 +1624,7 @@
       <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="5">
@@ -1320,7 +1633,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="K13" s="12"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1335,7 +1648,7 @@
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="5">
@@ -1344,7 +1657,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1359,7 +1672,7 @@
       <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="5">
@@ -1368,7 +1681,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1383,7 +1696,7 @@
       <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="15" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="5">
@@ -1392,7 +1705,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="K16" s="12"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1407,7 +1720,7 @@
       <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="5">
@@ -1416,7 +1729,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1425,14 +1738,20 @@
       <c r="B18" s="5">
         <v>1014</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5">
+        <v>2001</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="K18" s="12"/>
+      <c r="I18" s="5">
+        <v>2</v>
+      </c>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -1444,7 +1763,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1459,7 +1778,7 @@
       <c r="D20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="5">
@@ -1468,7 +1787,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
@@ -1483,7 +1802,7 @@
       <c r="D21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="5">
@@ -1491,8 +1810,10 @@
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="K21" s="12" t="s">
+      <c r="I21" s="5">
+        <v>3</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1509,7 +1830,7 @@
       <c r="D22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="15" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="5">
@@ -1517,8 +1838,10 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="K22" s="12" t="s">
+      <c r="I22" s="5">
+        <v>3</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1535,7 +1858,7 @@
       <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="15" t="s">
         <v>48</v>
       </c>
       <c r="F23" s="5">
@@ -1543,8 +1866,10 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="K23" s="12" t="s">
+      <c r="I23" s="5">
+        <v>3</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1561,7 +1886,7 @@
       <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="15" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="5">
@@ -1569,8 +1894,10 @@
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="K24" s="12" t="s">
+      <c r="I24" s="5">
+        <v>3</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1587,7 +1914,7 @@
       <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="15" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="5">
@@ -1596,7 +1923,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="K25" s="12"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -1611,7 +1938,7 @@
       <c r="D26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="15" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="5">
@@ -1620,7 +1947,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="K26" s="12"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -1635,7 +1962,7 @@
       <c r="D27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="15" t="s">
         <v>52</v>
       </c>
       <c r="F27" s="5">
@@ -1644,7 +1971,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="K27" s="12"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -1659,16 +1986,16 @@
       <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="13">
         <v>2012</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -1683,16 +2010,16 @@
       <c r="D29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="13">
         <v>2008</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="K29" s="12"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -1707,16 +2034,16 @@
       <c r="D30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="13">
         <v>2009</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -1731,16 +2058,16 @@
       <c r="D31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="13">
         <v>2012</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="K31" s="12"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
@@ -1755,16 +2082,16 @@
       <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="13">
         <v>2011</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="K32" s="12"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -1779,7 +2106,7 @@
       <c r="D33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="15" t="s">
         <v>58</v>
       </c>
       <c r="F33" s="5">
@@ -1788,7 +2115,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="K33" s="12"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -1797,14 +2124,20 @@
       <c r="B34" s="5">
         <v>2012</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="5">
+        <v>3001</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="K34" s="12"/>
+      <c r="I34" s="5">
+        <v>2</v>
+      </c>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
@@ -1816,7 +2149,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="K35" s="12"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -1831,7 +2164,7 @@
       <c r="D36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="15" t="s">
         <v>59</v>
       </c>
       <c r="F36" s="5">
@@ -1840,7 +2173,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="K36" s="12"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -1855,7 +2188,7 @@
       <c r="D37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="15" t="s">
         <v>60</v>
       </c>
       <c r="F37" s="5">
@@ -1864,7 +2197,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="K37" s="12"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
@@ -1879,7 +2212,7 @@
       <c r="D38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="15" t="s">
         <v>65</v>
       </c>
       <c r="F38" s="5">
@@ -1887,8 +2220,10 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="K38" s="12" t="s">
+      <c r="I38" s="5">
+        <v>3</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1905,7 +2240,7 @@
       <c r="D39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="15" t="s">
         <v>66</v>
       </c>
       <c r="F39" s="5">
@@ -1913,8 +2248,10 @@
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="K39" s="12" t="s">
+      <c r="I39" s="5">
+        <v>3</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1931,7 +2268,7 @@
       <c r="D40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="15" t="s">
         <v>67</v>
       </c>
       <c r="F40" s="5">
@@ -1939,8 +2276,10 @@
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="K40" s="12" t="s">
+      <c r="I40" s="5">
+        <v>3</v>
+      </c>
+      <c r="K40" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1957,7 +2296,7 @@
       <c r="D41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="15" t="s">
         <v>74</v>
       </c>
       <c r="F41" s="5">
@@ -1965,8 +2304,10 @@
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="K41" s="12" t="s">
+      <c r="I41" s="5">
+        <v>3</v>
+      </c>
+      <c r="K41" s="9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1983,7 +2324,7 @@
       <c r="D42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="15" t="s">
         <v>68</v>
       </c>
       <c r="F42" s="5">
@@ -1992,7 +2333,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
@@ -2007,7 +2348,7 @@
       <c r="D43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="15" t="s">
         <v>69</v>
       </c>
       <c r="F43" s="5">
@@ -2016,7 +2357,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="K43" s="12"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -2031,7 +2372,7 @@
       <c r="D44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="15" t="s">
         <v>70</v>
       </c>
       <c r="F44" s="5">
@@ -2040,7 +2381,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="K44" s="12"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
@@ -2055,7 +2396,7 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="15" t="s">
         <v>71</v>
       </c>
       <c r="F45" s="5">
@@ -2064,7 +2405,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="K45" s="12"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
@@ -2079,7 +2420,7 @@
       <c r="D46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="15" t="s">
         <v>72</v>
       </c>
       <c r="F46" s="5">
@@ -2088,7 +2429,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="K46" s="12"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -2103,7 +2444,7 @@
       <c r="D47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="15" t="s">
         <v>73</v>
       </c>
       <c r="F47" s="5">
@@ -2112,7 +2453,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="K47" s="12"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -2121,14 +2462,20 @@
       <c r="B48" s="5">
         <v>3010</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="F48" s="5">
+        <v>4001</v>
+      </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="K48" s="12"/>
+      <c r="I48" s="5">
+        <v>2</v>
+      </c>
+      <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
@@ -2140,7 +2487,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="K49" s="12"/>
+      <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
@@ -2155,7 +2502,7 @@
       <c r="D50" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="15" t="s">
         <v>76</v>
       </c>
       <c r="F50" s="5">
@@ -2164,7 +2511,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="K50" s="12"/>
+      <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -2179,7 +2526,7 @@
       <c r="D51" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="15" t="s">
         <v>77</v>
       </c>
       <c r="F51" s="5">
@@ -2188,7 +2535,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="K51" s="12"/>
+      <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -2211,8 +2558,10 @@
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="K52" s="12" t="s">
+      <c r="I52" s="5">
+        <v>3</v>
+      </c>
+      <c r="K52" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2238,7 +2587,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="K53" s="12"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -2261,8 +2610,10 @@
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="K54" s="12" t="s">
+      <c r="I54" s="5">
+        <v>3</v>
+      </c>
+      <c r="K54" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2288,7 +2639,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="K55" s="12"/>
+      <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -2311,8 +2662,10 @@
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="K56" s="12" t="s">
+      <c r="I56" s="5">
+        <v>3</v>
+      </c>
+      <c r="K56" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2338,7 +2691,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="K57" s="12"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -2361,8 +2714,10 @@
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="K58" s="12" t="s">
+      <c r="I58" s="5">
+        <v>3</v>
+      </c>
+      <c r="K58" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2388,7 +2743,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="K59" s="12"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -2412,7 +2767,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="K60" s="12"/>
+      <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -2436,7 +2791,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="K61" s="12"/>
+      <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -2460,7 +2815,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="K62" s="12"/>
+      <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -2484,7 +2839,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
-      <c r="K63" s="12"/>
+      <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -2508,7 +2863,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="K64" s="12"/>
+      <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -2532,7 +2887,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="K65" s="12"/>
+      <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -2541,14 +2896,20 @@
       <c r="B66" s="5">
         <v>4014</v>
       </c>
-      <c r="C66" s="5"/>
+      <c r="C66" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="F66" s="5">
+        <v>5001</v>
+      </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="K66" s="12"/>
+      <c r="I66" s="5">
+        <v>2</v>
+      </c>
+      <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
@@ -2560,7 +2921,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="K67" s="12"/>
+      <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -2575,7 +2936,7 @@
       <c r="D68" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F68" s="5">
@@ -2584,7 +2945,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="K68" s="12"/>
+      <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
@@ -2599,7 +2960,7 @@
       <c r="D69" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F69" s="5">
@@ -2608,7 +2969,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="K69" s="12"/>
+      <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
@@ -2623,7 +2984,7 @@
       <c r="D70" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F70" s="5">
@@ -2632,7 +2993,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
-      <c r="K70" s="12"/>
+      <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -2647,14 +3008,16 @@
       <c r="D71" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F71" s="5"/>
+      <c r="F71" s="5">
+        <v>5005</v>
+      </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="K71" s="12"/>
+      <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
@@ -2669,14 +3032,16 @@
       <c r="D72" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F72" s="5"/>
+      <c r="F72" s="5">
+        <v>5006</v>
+      </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-      <c r="K72" s="12"/>
+      <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -2691,14 +3056,20 @@
       <c r="D73" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="5"/>
+      <c r="F73" s="5">
+        <v>5007</v>
+      </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="K73" s="12"/>
+      <c r="I73" s="5">
+        <v>3</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
@@ -2713,14 +3084,16 @@
       <c r="D74" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F74" s="5"/>
+      <c r="F74" s="5">
+        <v>5011</v>
+      </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="K74" s="12"/>
+      <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -2735,14 +3108,20 @@
       <c r="D75" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F75" s="5"/>
+      <c r="F75" s="5">
+        <v>5008</v>
+      </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="K75" s="12"/>
+      <c r="I75" s="5">
+        <v>3</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
@@ -2757,14 +3136,16 @@
       <c r="D76" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F76" s="5"/>
+      <c r="F76" s="5">
+        <v>5014</v>
+      </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
-      <c r="K76" s="12"/>
+      <c r="K76" s="9"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -2779,14 +3160,20 @@
       <c r="D77" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F77" s="5"/>
+      <c r="F77" s="5">
+        <v>5009</v>
+      </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="K77" s="12"/>
+      <c r="I77" s="5">
+        <v>3</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
@@ -2801,14 +3188,16 @@
       <c r="D78" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F78" s="5"/>
+      <c r="F78" s="5">
+        <v>5018</v>
+      </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="K78" s="12"/>
+      <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -2823,14 +3212,20 @@
       <c r="D79" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="5"/>
+      <c r="F79" s="5">
+        <v>5010</v>
+      </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="K79" s="12"/>
+      <c r="I79" s="5">
+        <v>3</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
@@ -2845,14 +3240,16 @@
       <c r="D80" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F80" s="5"/>
+      <c r="F80" s="5">
+        <v>5020</v>
+      </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
-      <c r="K80" s="12"/>
+      <c r="K80" s="9"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
@@ -2867,14 +3264,16 @@
       <c r="D81" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F81" s="5"/>
+      <c r="F81" s="5">
+        <v>5012</v>
+      </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-      <c r="K81" s="12"/>
+      <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
@@ -2889,14 +3288,16 @@
       <c r="D82" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F82" s="5"/>
+      <c r="F82" s="5">
+        <v>5013</v>
+      </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
-      <c r="K82" s="12"/>
+      <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
@@ -2905,14 +3306,20 @@
       <c r="B83" s="5">
         <v>5013</v>
       </c>
-      <c r="C83" s="5"/>
+      <c r="C83" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D83" s="5"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="5"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="5">
+        <v>8001</v>
+      </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="K83" s="12"/>
+      <c r="I83" s="5">
+        <v>2</v>
+      </c>
+      <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
@@ -2927,14 +3334,16 @@
       <c r="D84" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F84" s="5"/>
+      <c r="F84" s="5">
+        <v>5015</v>
+      </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-      <c r="K84" s="12"/>
+      <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
@@ -2949,14 +3358,16 @@
       <c r="D85" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F85" s="5"/>
+      <c r="F85" s="5">
+        <v>5016</v>
+      </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
-      <c r="K85" s="12"/>
+      <c r="K85" s="9"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
@@ -2971,14 +3382,16 @@
       <c r="D86" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F86" s="5"/>
+      <c r="F86" s="5">
+        <v>5017</v>
+      </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
-      <c r="K86" s="12"/>
+      <c r="K86" s="9"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
@@ -2987,14 +3400,20 @@
       <c r="B87" s="5">
         <v>5017</v>
       </c>
-      <c r="C87" s="5"/>
+      <c r="C87" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D87" s="5"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="5"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="5">
+        <v>11001</v>
+      </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="K87" s="12"/>
+      <c r="I87" s="5">
+        <v>2</v>
+      </c>
+      <c r="K87" s="9"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
@@ -3009,14 +3428,16 @@
       <c r="D88" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F88" s="5"/>
+      <c r="F88" s="5">
+        <v>5019</v>
+      </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
-      <c r="K88" s="12"/>
+      <c r="K88" s="9"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -3025,14 +3446,20 @@
       <c r="B89" s="5">
         <v>5019</v>
       </c>
-      <c r="C89" s="5"/>
+      <c r="C89" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D89" s="5"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="5"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="5">
+        <v>6001</v>
+      </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="K89" s="12"/>
+      <c r="I89" s="5">
+        <v>2</v>
+      </c>
+      <c r="K89" s="9"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -3047,14 +3474,16 @@
       <c r="D90" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F90" s="5"/>
+      <c r="F90" s="5">
+        <v>5021</v>
+      </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-      <c r="K90" s="12"/>
+      <c r="K90" s="9"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
@@ -3063,14 +3492,20 @@
       <c r="B91" s="5">
         <v>5021</v>
       </c>
-      <c r="C91" s="5"/>
+      <c r="C91" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D91" s="5"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="5"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="5">
+        <v>8001</v>
+      </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="K91" s="12"/>
+      <c r="I91" s="5">
+        <v>2</v>
+      </c>
+      <c r="K91" s="9"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
@@ -3082,355 +3517,719 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
-      <c r="K92" s="12"/>
+      <c r="K92" s="9"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
+      <c r="A93" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="5">
+        <v>6001</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F93" s="5">
+        <v>6002</v>
+      </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="K93" s="12"/>
+      <c r="K93" s="9"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
+      <c r="A94" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="5">
+        <v>6002</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" s="5">
+        <v>6003</v>
+      </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="K94" s="12"/>
+      <c r="K94" s="9"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
+      <c r="A95" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="5">
+        <v>6003</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F95" s="5">
+        <v>6004</v>
+      </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="K95" s="12"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
+      <c r="K95" s="9"/>
+    </row>
+    <row r="96" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="5">
+        <v>6004</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F96" s="5">
+        <v>6005</v>
+      </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="K96" s="12"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="5"/>
+      <c r="I96" s="5">
+        <v>3</v>
+      </c>
+      <c r="K96" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="5">
+        <v>6004</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" s="5">
+        <v>6008</v>
+      </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="K97" s="12"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
+      <c r="I97" s="5">
+        <v>3</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="5">
+        <v>6004</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" s="5">
+        <v>6010</v>
+      </c>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="K98" s="12"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
+      <c r="I98" s="5">
+        <v>3</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="5">
+        <v>6004</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F99" s="5">
+        <v>6011</v>
+      </c>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="K99" s="12"/>
+      <c r="I99" s="5">
+        <v>3</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
+      <c r="A100" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="5">
+        <v>6005</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F100" s="5">
+        <v>6006</v>
+      </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="K100" s="12"/>
+      <c r="K100" s="9"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
+      <c r="A101" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="5">
+        <v>6006</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F101" s="5">
+        <v>6007</v>
+      </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
-      <c r="K101" s="12"/>
+      <c r="K101" s="9"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
+      <c r="A102" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="5">
+        <v>6007</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" s="5">
+        <v>6012</v>
+      </c>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
-      <c r="K102" s="12"/>
+      <c r="K102" s="9"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
+      <c r="A103" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" s="5">
+        <v>6008</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F103" s="5">
+        <v>6009</v>
+      </c>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
-      <c r="K103" s="12"/>
+      <c r="K103" s="9"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
+      <c r="A104" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" s="5">
+        <v>6009</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F104" s="5">
+        <v>6012</v>
+      </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
-      <c r="K104" s="12"/>
+      <c r="K104" s="9"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
+      <c r="A105" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" s="5">
+        <v>6010</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F105" s="5">
+        <v>6012</v>
+      </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
-      <c r="K105" s="12"/>
+      <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
+      <c r="A106" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" s="5">
+        <v>6011</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F106" s="5">
+        <v>6012</v>
+      </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
-      <c r="K106" s="12"/>
+      <c r="K106" s="9"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
+      <c r="A107" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" s="5">
+        <v>6012</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="5">
+        <v>7001</v>
+      </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="K107" s="12"/>
+      <c r="I107" s="5">
+        <v>2</v>
+      </c>
+      <c r="K107" s="9"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
+      <c r="E108" s="7"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
-      <c r="K108" s="12"/>
+      <c r="K108" s="9"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
+      <c r="A109" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B109" s="5">
+        <v>7001</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F109" s="5">
+        <v>7002</v>
+      </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
-      <c r="K109" s="12"/>
+      <c r="K109" s="9"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
+      <c r="A110" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B110" s="5">
+        <v>7002</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F110" s="5">
+        <v>7003</v>
+      </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
-      <c r="K110" s="12"/>
+      <c r="K110" s="9"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
+      <c r="A111" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B111" s="5">
+        <v>7003</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F111" s="5">
+        <v>7004</v>
+      </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
-      <c r="K111" s="12"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
+      <c r="K111" s="9"/>
+    </row>
+    <row r="112" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="5">
+        <v>7004</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F112" s="5">
+        <v>7005</v>
+      </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="K112" s="12"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
+      <c r="I112" s="5">
+        <v>3</v>
+      </c>
+      <c r="K112" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="5">
+        <v>7004</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F113" s="5">
+        <v>7006</v>
+      </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="K113" s="12"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
+      <c r="I113" s="5">
+        <v>3</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="5">
+        <v>7004</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F114" s="5">
+        <v>7008</v>
+      </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="K114" s="12"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
+      <c r="I114" s="5">
+        <v>3</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="5">
+        <v>7004</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F115" s="5">
+        <v>7009</v>
+      </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="K115" s="12"/>
+      <c r="I115" s="5">
+        <v>3</v>
+      </c>
+      <c r="K115" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
+      <c r="A116" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B116" s="5">
+        <v>7005</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F116" s="5">
+        <v>7010</v>
+      </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
-      <c r="K116" s="12"/>
+      <c r="K116" s="9"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
+      <c r="A117" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" s="5">
+        <v>7006</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F117" s="5">
+        <v>7007</v>
+      </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
-      <c r="K117" s="12"/>
+      <c r="K117" s="9"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
+      <c r="A118" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B118" s="5">
+        <v>7007</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F118" s="5">
+        <v>7010</v>
+      </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
-      <c r="K118" s="12"/>
+      <c r="K118" s="9"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
+      <c r="A119" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B119" s="5">
+        <v>7008</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F119" s="5">
+        <v>7010</v>
+      </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
-      <c r="K119" s="12"/>
+      <c r="K119" s="9"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
+      <c r="A120" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B120" s="5">
+        <v>7009</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F120" s="5">
+        <v>7010</v>
+      </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
-      <c r="K120" s="12"/>
+      <c r="K120" s="9"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
+      <c r="A121" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" s="5">
+        <v>7010</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="5">
+        <v>12001</v>
+      </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="K121" s="12"/>
+      <c r="I121" s="5">
+        <v>2</v>
+      </c>
+      <c r="K121" s="9"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
@@ -3442,451 +4241,1615 @@
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
-      <c r="K122" s="12"/>
+      <c r="K122" s="9"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
+      <c r="A123" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B123" s="5">
+        <v>8001</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F123" s="5">
+        <v>8002</v>
+      </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
-      <c r="K123" s="12"/>
+      <c r="K123" s="9"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="5"/>
+      <c r="A124" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B124" s="5">
+        <v>8002</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F124" s="5">
+        <v>8003</v>
+      </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
-      <c r="K124" s="12"/>
+      <c r="K124" s="9"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="5"/>
+      <c r="A125" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B125" s="5">
+        <v>8003</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F125" s="5">
+        <v>8004</v>
+      </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
-      <c r="K125" s="12"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
+      <c r="K125" s="9"/>
+    </row>
+    <row r="126" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="5">
+        <v>8004</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F126" s="5">
+        <v>8005</v>
+      </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="K126" s="12"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
+      <c r="I126" s="5">
+        <v>3</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="5">
+        <v>8004</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F127" s="5">
+        <v>8008</v>
+      </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="K127" s="12"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
+      <c r="I127" s="5">
+        <v>3</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="5">
+        <v>8004</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F128" s="5">
+        <v>8010</v>
+      </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="K128" s="12"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
+      <c r="I128" s="5">
+        <v>3</v>
+      </c>
+      <c r="K128" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="5">
+        <v>8004</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F129" s="5">
+        <v>8011</v>
+      </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="K129" s="12"/>
+      <c r="I129" s="5">
+        <v>3</v>
+      </c>
+      <c r="K129" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
+      <c r="A130" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B130" s="5">
+        <v>8005</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F130" s="5">
+        <v>8006</v>
+      </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
-      <c r="K130" s="12"/>
+      <c r="K130" s="9"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="5"/>
+      <c r="A131" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B131" s="5">
+        <v>8006</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F131" s="5">
+        <v>8007</v>
+      </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
-      <c r="K131" s="12"/>
+      <c r="K131" s="9"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
+      <c r="A132" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B132" s="5">
+        <v>8007</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F132" s="5">
+        <v>8012</v>
+      </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
-      <c r="K132" s="12"/>
+      <c r="K132" s="9"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
+      <c r="A133" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B133" s="5">
+        <v>8008</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F133" s="5">
+        <v>8009</v>
+      </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
-      <c r="K133" s="12"/>
+      <c r="K133" s="9"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
+      <c r="A134" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B134" s="5">
+        <v>8009</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F134" s="5">
+        <v>8012</v>
+      </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
-      <c r="K134" s="12"/>
+      <c r="K134" s="9"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
+      <c r="A135" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B135" s="5">
+        <v>8010</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F135" s="5">
+        <v>8012</v>
+      </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
-      <c r="K135" s="12"/>
+      <c r="K135" s="9"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
+      <c r="A136" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B136" s="5">
+        <v>8011</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F136" s="5">
+        <v>8012</v>
+      </c>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
-      <c r="K136" s="12"/>
+      <c r="K136" s="9"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
+      <c r="A137" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137" s="5">
+        <v>8012</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="5">
+        <v>9001</v>
+      </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="K137" s="12"/>
+      <c r="I137" s="5">
+        <v>2</v>
+      </c>
+      <c r="K137" s="9"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
+      <c r="E138" s="7"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-      <c r="K138" s="12"/>
+      <c r="K138" s="9"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="6"/>
+      <c r="A139" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B139" s="5">
+        <v>9001</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F139" s="5">
+        <v>9002</v>
+      </c>
+      <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
-      <c r="K139" s="12"/>
+      <c r="K139" s="9"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
+      <c r="A140" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B140" s="5">
+        <v>9002</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F140" s="5">
+        <v>9003</v>
+      </c>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
-      <c r="K140" s="12"/>
+      <c r="K140" s="9"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
+      <c r="A141" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B141" s="5">
+        <v>9003</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F141" s="5">
+        <v>9004</v>
+      </c>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
-      <c r="K141" s="12"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
+      <c r="K141" s="9"/>
+    </row>
+    <row r="142" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="5">
+        <v>9004</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F142" s="5">
+        <v>9005</v>
+      </c>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="K142" s="12"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
+      <c r="I142" s="5">
+        <v>3</v>
+      </c>
+      <c r="K142" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="5">
+        <v>9004</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F143" s="5">
+        <v>9006</v>
+      </c>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="K143" s="12"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
+      <c r="I143" s="5">
+        <v>3</v>
+      </c>
+      <c r="K143" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="5">
+        <v>9004</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F144" s="5">
+        <v>9008</v>
+      </c>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="K144" s="12"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
+      <c r="I144" s="5">
+        <v>3</v>
+      </c>
+      <c r="K144" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="5">
+        <v>9004</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F145" s="5">
+        <v>9009</v>
+      </c>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="K145" s="12"/>
+      <c r="I145" s="5">
+        <v>3</v>
+      </c>
+      <c r="K145" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
+      <c r="A146" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B146" s="5">
+        <v>9005</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F146" s="5">
+        <v>9010</v>
+      </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
-      <c r="K146" s="12"/>
+      <c r="K146" s="9"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
+      <c r="A147" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B147" s="5">
+        <v>9006</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F147" s="5">
+        <v>9009</v>
+      </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
-      <c r="K147" s="12"/>
+      <c r="K147" s="9"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
+      <c r="A148" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B148" s="5">
+        <v>9007</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F148" s="5">
+        <v>9010</v>
+      </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
-      <c r="K148" s="12"/>
+      <c r="K148" s="9"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
+      <c r="A149" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B149" s="5">
+        <v>9008</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F149" s="5">
+        <v>9010</v>
+      </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
-      <c r="K149" s="12"/>
+      <c r="K149" s="9"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
+      <c r="A150" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B150" s="5">
+        <v>9009</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F150" s="5">
+        <v>9010</v>
+      </c>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
-      <c r="K150" s="12"/>
+      <c r="K150" s="9"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
+      <c r="A151" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B151" s="5">
+        <v>9010</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="5">
+        <v>10001</v>
+      </c>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="K151" s="12"/>
+      <c r="I151" s="5">
+        <v>2</v>
+      </c>
+      <c r="K151" s="9"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
+      <c r="E152" s="7"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
-      <c r="K152" s="12"/>
+      <c r="K152" s="9"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
+      <c r="A153" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B153" s="5">
+        <v>10001</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F153" s="5">
+        <v>10002</v>
+      </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
-      <c r="K153" s="12"/>
+      <c r="K153" s="9"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
+      <c r="A154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F154" s="5">
+        <v>10003</v>
+      </c>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="K154" s="12"/>
+      <c r="I154" s="5">
+        <v>3</v>
+      </c>
+      <c r="K154" s="9" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
+      <c r="A155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F155" s="5">
+        <v>10004</v>
+      </c>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="K155" s="12"/>
+      <c r="I155" s="5">
+        <v>3</v>
+      </c>
+      <c r="K155" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
+      <c r="A156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F156" s="5">
+        <v>10007</v>
+      </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="K156" s="12"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
+      <c r="I156" s="5">
+        <v>3</v>
+      </c>
+      <c r="K156" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B157" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F157" s="5">
+        <v>10008</v>
+      </c>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="K157" s="12"/>
+      <c r="I157" s="5">
+        <v>3</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="K158" s="12"/>
+      <c r="A158" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B158" s="5">
+        <v>10003</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F158" s="13">
+        <v>10009</v>
+      </c>
+      <c r="K158" s="9"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="K159" s="12"/>
+      <c r="A159" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B159" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F159" s="13">
+        <v>10005</v>
+      </c>
+      <c r="K159" s="9"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B160" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F160" s="13">
+        <v>10006</v>
+      </c>
+      <c r="K160" s="9"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B161" s="5">
+        <v>10006</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F161" s="13">
+        <v>10009</v>
+      </c>
+      <c r="K161" s="9"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B162" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F162" s="13">
+        <v>10009</v>
+      </c>
+      <c r="K162" s="9"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B163" s="5">
+        <v>10008</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F163" s="13">
+        <v>10009</v>
+      </c>
+      <c r="K163" s="9"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" s="10"/>
+      <c r="F164" s="13">
+        <v>12001</v>
+      </c>
+      <c r="K164" s="9"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="C165" s="5"/>
+      <c r="E165" s="10"/>
+      <c r="K165" s="9"/>
+    </row>
+    <row r="166" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B166" s="5">
+        <v>11001</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F166" s="13">
+        <v>11001</v>
+      </c>
+      <c r="K166" s="9"/>
+    </row>
+    <row r="167" spans="1:11" ht="52" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B167" s="5">
+        <v>11002</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F167" s="13">
+        <v>11003</v>
+      </c>
+      <c r="I167" s="14">
+        <v>3</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B168" s="5">
+        <v>11002</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F168" s="13">
+        <v>11005</v>
+      </c>
+      <c r="I168" s="14">
+        <v>3</v>
+      </c>
+      <c r="K168" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B169" s="5">
+        <v>11002</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F169" s="13">
+        <v>11003</v>
+      </c>
+      <c r="I169" s="14">
+        <v>3</v>
+      </c>
+      <c r="K169" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B170" s="5">
+        <v>11002</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F170" s="13">
+        <v>11003</v>
+      </c>
+      <c r="I170" s="14">
+        <v>3</v>
+      </c>
+      <c r="K170" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B171" s="5">
+        <v>11003</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F171" s="13">
+        <v>11004</v>
+      </c>
+      <c r="K171" s="9"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B172" s="5">
+        <v>11004</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F172" s="13">
+        <v>11005</v>
+      </c>
+      <c r="K172" s="9"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B173" s="5">
+        <v>11005</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173" s="10"/>
+      <c r="F173" s="13">
+        <v>12001</v>
+      </c>
+      <c r="I173" s="14">
+        <v>2</v>
+      </c>
+      <c r="K173" s="9"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B174" s="5">
+        <v>11006</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F174" s="13">
+        <v>11007</v>
+      </c>
+      <c r="K174" s="9"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B175" s="5">
+        <v>11007</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F175" s="13">
+        <v>11008</v>
+      </c>
+      <c r="K175" s="9"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B176" s="5">
+        <v>11008</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F176" s="13">
+        <v>11009</v>
+      </c>
+      <c r="K176" s="9"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B177" s="5">
+        <v>11009</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="E177" s="10"/>
+      <c r="K177" s="9"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="E178" s="10"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B179" s="5">
+        <v>12001</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F179" s="13">
+        <v>12002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B180" s="5">
+        <v>12002</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F180" s="13">
+        <v>12003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B181" s="5">
+        <v>12003</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F181" s="13">
+        <v>12004</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B182" s="5">
+        <v>12004</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F182" s="13">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B183" s="5">
+        <v>12005</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F183" s="13">
+        <v>12006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B184" s="5">
+        <v>12006</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F184" s="13">
+        <v>12007</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B185" s="5">
+        <v>12007</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F185" s="13">
+        <v>12008</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B186" s="5">
+        <v>12008</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="E186" s="10"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D187" s="2"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="1"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="1"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D188" s="2"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="1"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="1"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D189" s="2"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="1"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="1"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D190" s="2"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="1"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="11"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D191" s="2"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="1"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="11"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="1"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D192" s="2"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="1"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="11"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="1"/>
+    </row>
+    <row r="193" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D193" s="2"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="1"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="11"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="1"/>
+    </row>
+    <row r="194" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D194" s="2"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="1"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="11"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D195" s="2"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="1"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="11"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="1"/>
+    </row>
+    <row r="196" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D196" s="2"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="1"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="11"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="1"/>
+    </row>
+    <row r="197" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D197" s="2"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="1"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="11"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="1"/>
+    </row>
+    <row r="198" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D198" s="2"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="1"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="11"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="1"/>
+    </row>
+    <row r="199" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D199" s="2"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="1"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="11"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="1"/>
+    </row>
+    <row r="200" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D200" s="2"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="1"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="11"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A728C80C-56AA-431D-BD84-E4226A9DE4AE}">
+  <dimension ref="B2:K6"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="32.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15439\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\2026_GGJ\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4891CB-967F-45C2-9102-2AA1E40C0D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A61FE52-D906-4C0C-85C9-C5493AE9C275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="201">
   <si>
     <t>标志</t>
   </si>
@@ -777,6 +777,10 @@
   </si>
   <si>
     <t>画完了！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totaltime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -944,7 +948,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,16 +957,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1276,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I194" sqref="I194"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1288,17 +1289,17 @@
     <col min="2" max="2" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="4.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.08984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.08984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.90625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="37.90625" style="13" customWidth="1"/>
     <col min="10" max="10" width="30.7265625" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.1796875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1338,8 +1339,11 @@
       <c r="M1" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1352,7 +1356,7 @@
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="5">
@@ -1362,8 +1366,11 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1376,7 +1383,7 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="5">
@@ -1387,7 +1394,7 @@
       <c r="I3" s="5"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1400,7 +1407,7 @@
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="5">
@@ -1410,8 +1417,11 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1424,7 +1434,7 @@
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="5">
@@ -1438,7 +1448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1451,7 +1461,7 @@
       <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="5">
@@ -1465,7 +1475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1478,7 +1488,7 @@
       <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="5">
@@ -1492,7 +1502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1505,7 +1515,7 @@
       <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="5">
@@ -1519,7 +1529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1532,17 +1542,17 @@
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="7">
         <v>1006</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1555,17 +1565,17 @@
       <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="7">
         <v>1007</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1578,17 +1588,17 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="7">
         <v>1014</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1601,17 +1611,17 @@
       <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="7">
         <v>1009</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1624,7 +1634,7 @@
       <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="5">
@@ -1635,7 +1645,7 @@
       <c r="I13" s="5"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1648,7 +1658,7 @@
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="5">
@@ -1659,7 +1669,7 @@
       <c r="I14" s="5"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1682,7 @@
       <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="5">
@@ -1683,7 +1693,7 @@
       <c r="I15" s="5"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1696,7 +1706,7 @@
       <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="5">
@@ -1720,7 +1730,7 @@
       <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="5">
@@ -1778,7 +1788,7 @@
       <c r="D20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="5">
@@ -1802,7 +1812,7 @@
       <c r="D21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="5">
@@ -1830,7 +1840,7 @@
       <c r="D22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="5">
@@ -1858,7 +1868,7 @@
       <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>48</v>
       </c>
       <c r="F23" s="5">
@@ -1886,7 +1896,7 @@
       <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="5">
@@ -1914,7 +1924,7 @@
       <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="5">
@@ -1938,7 +1948,7 @@
       <c r="D26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="5">
@@ -1962,7 +1972,7 @@
       <c r="D27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>52</v>
       </c>
       <c r="F27" s="5">
@@ -1986,10 +1996,10 @@
       <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="7">
         <v>2012</v>
       </c>
       <c r="G28" s="5"/>
@@ -2010,10 +2020,10 @@
       <c r="D29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="7">
         <v>2008</v>
       </c>
       <c r="G29" s="5"/>
@@ -2034,10 +2044,10 @@
       <c r="D30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="7">
         <v>2009</v>
       </c>
       <c r="G30" s="5"/>
@@ -2058,10 +2068,10 @@
       <c r="D31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="7">
         <v>2012</v>
       </c>
       <c r="G31" s="5"/>
@@ -2082,10 +2092,10 @@
       <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="7">
         <v>2011</v>
       </c>
       <c r="G32" s="5"/>
@@ -2106,7 +2116,7 @@
       <c r="D33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F33" s="5">
@@ -2164,7 +2174,7 @@
       <c r="D36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="14" t="s">
         <v>59</v>
       </c>
       <c r="F36" s="5">
@@ -2188,7 +2198,7 @@
       <c r="D37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F37" s="5">
@@ -2212,7 +2222,7 @@
       <c r="D38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="14" t="s">
         <v>65</v>
       </c>
       <c r="F38" s="5">
@@ -2240,7 +2250,7 @@
       <c r="D39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F39" s="5">
@@ -2268,7 +2278,7 @@
       <c r="D40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F40" s="5">
@@ -2296,7 +2306,7 @@
       <c r="D41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F41" s="5">
@@ -2324,7 +2334,7 @@
       <c r="D42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="14" t="s">
         <v>68</v>
       </c>
       <c r="F42" s="5">
@@ -2348,7 +2358,7 @@
       <c r="D43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>69</v>
       </c>
       <c r="F43" s="5">
@@ -2372,7 +2382,7 @@
       <c r="D44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="14" t="s">
         <v>70</v>
       </c>
       <c r="F44" s="5">
@@ -2396,7 +2406,7 @@
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="14" t="s">
         <v>71</v>
       </c>
       <c r="F45" s="5">
@@ -2420,7 +2430,7 @@
       <c r="D46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="14" t="s">
         <v>72</v>
       </c>
       <c r="F46" s="5">
@@ -2444,7 +2454,7 @@
       <c r="D47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F47" s="5">
@@ -2502,7 +2512,7 @@
       <c r="D50" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>76</v>
       </c>
       <c r="F50" s="5">
@@ -2526,7 +2536,7 @@
       <c r="D51" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="14" t="s">
         <v>77</v>
       </c>
       <c r="F51" s="5">
@@ -3043,7 +3053,7 @@
       <c r="I72" s="5"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="26" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>11</v>
       </c>
@@ -3095,7 +3105,7 @@
       <c r="I74" s="5"/>
       <c r="K74" s="9"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="26" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>11</v>
       </c>
@@ -3147,7 +3157,7 @@
       <c r="I76" s="5"/>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="26" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>11</v>
       </c>
@@ -3199,7 +3209,7 @@
       <c r="I78" s="5"/>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="26" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>11</v>
       </c>
@@ -5119,7 +5129,7 @@
       <c r="E158" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F158" s="13">
+      <c r="F158" s="7">
         <v>10009</v>
       </c>
       <c r="K158" s="9"/>
@@ -5140,7 +5150,7 @@
       <c r="E159" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F159" s="13">
+      <c r="F159" s="7">
         <v>10005</v>
       </c>
       <c r="K159" s="9"/>
@@ -5161,7 +5171,7 @@
       <c r="E160" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F160" s="13">
+      <c r="F160" s="7">
         <v>10006</v>
       </c>
       <c r="K160" s="9"/>
@@ -5182,7 +5192,7 @@
       <c r="E161" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F161" s="13">
+      <c r="F161" s="7">
         <v>10009</v>
       </c>
       <c r="K161" s="9"/>
@@ -5203,7 +5213,7 @@
       <c r="E162" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F162" s="13">
+      <c r="F162" s="7">
         <v>10009</v>
       </c>
       <c r="K162" s="9"/>
@@ -5224,7 +5234,7 @@
       <c r="E163" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F163" s="13">
+      <c r="F163" s="7">
         <v>10009</v>
       </c>
       <c r="K163" s="9"/>
@@ -5240,7 +5250,7 @@
         <v>18</v>
       </c>
       <c r="E164" s="10"/>
-      <c r="F164" s="13">
+      <c r="F164" s="7">
         <v>12001</v>
       </c>
       <c r="K164" s="9"/>
@@ -5267,7 +5277,7 @@
       <c r="E166" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F166" s="13">
+      <c r="F166" s="7">
         <v>11001</v>
       </c>
       <c r="K166" s="9"/>
@@ -5288,10 +5298,10 @@
       <c r="E167" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F167" s="13">
+      <c r="F167" s="7">
         <v>11003</v>
       </c>
-      <c r="I167" s="14">
+      <c r="I167" s="13">
         <v>3</v>
       </c>
       <c r="K167" s="9" t="s">
@@ -5314,10 +5324,10 @@
       <c r="E168" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F168" s="13">
+      <c r="F168" s="7">
         <v>11005</v>
       </c>
-      <c r="I168" s="14">
+      <c r="I168" s="13">
         <v>3</v>
       </c>
       <c r="K168" s="9" t="s">
@@ -5340,10 +5350,10 @@
       <c r="E169" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F169" s="13">
+      <c r="F169" s="7">
         <v>11003</v>
       </c>
-      <c r="I169" s="14">
+      <c r="I169" s="13">
         <v>3</v>
       </c>
       <c r="K169" s="9" t="s">
@@ -5366,10 +5376,10 @@
       <c r="E170" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F170" s="13">
+      <c r="F170" s="7">
         <v>11003</v>
       </c>
-      <c r="I170" s="14">
+      <c r="I170" s="13">
         <v>3</v>
       </c>
       <c r="K170" s="9" t="s">
@@ -5392,7 +5402,7 @@
       <c r="E171" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F171" s="13">
+      <c r="F171" s="7">
         <v>11004</v>
       </c>
       <c r="K171" s="9"/>
@@ -5413,7 +5423,7 @@
       <c r="E172" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F172" s="13">
+      <c r="F172" s="7">
         <v>11005</v>
       </c>
       <c r="K172" s="9"/>
@@ -5429,10 +5439,10 @@
         <v>18</v>
       </c>
       <c r="E173" s="10"/>
-      <c r="F173" s="13">
+      <c r="F173" s="7">
         <v>12001</v>
       </c>
-      <c r="I173" s="14">
+      <c r="I173" s="13">
         <v>2</v>
       </c>
       <c r="K173" s="9"/>
@@ -5453,7 +5463,7 @@
       <c r="E174" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F174" s="13">
+      <c r="F174" s="7">
         <v>11007</v>
       </c>
       <c r="K174" s="9"/>
@@ -5474,7 +5484,7 @@
       <c r="E175" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F175" s="13">
+      <c r="F175" s="7">
         <v>11008</v>
       </c>
       <c r="K175" s="9"/>
@@ -5495,7 +5505,7 @@
       <c r="E176" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F176" s="13">
+      <c r="F176" s="7">
         <v>11009</v>
       </c>
       <c r="K176" s="9"/>
@@ -5529,7 +5539,7 @@
       <c r="E179" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F179" s="13">
+      <c r="F179" s="7">
         <v>12002</v>
       </c>
     </row>
@@ -5546,7 +5556,7 @@
       <c r="E180" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F180" s="13">
+      <c r="F180" s="7">
         <v>12003</v>
       </c>
     </row>
@@ -5563,7 +5573,7 @@
       <c r="E181" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F181" s="13">
+      <c r="F181" s="7">
         <v>12004</v>
       </c>
     </row>
@@ -5580,7 +5590,7 @@
       <c r="E182" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="F182" s="13">
+      <c r="F182" s="7">
         <v>12005</v>
       </c>
     </row>
@@ -5597,7 +5607,7 @@
       <c r="E183" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F183" s="13">
+      <c r="F183" s="7">
         <v>12006</v>
       </c>
     </row>
@@ -5614,7 +5624,7 @@
       <c r="E184" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F184" s="13">
+      <c r="F184" s="7">
         <v>12007</v>
       </c>
     </row>
@@ -5631,7 +5641,7 @@
       <c r="E185" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F185" s="13">
+      <c r="F185" s="7">
         <v>12008</v>
       </c>
     </row>
@@ -5647,7 +5657,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D187" s="2"/>
-      <c r="E187" s="13"/>
+      <c r="E187" s="7"/>
       <c r="F187" s="1"/>
       <c r="H187" s="2"/>
       <c r="I187" s="11"/>
@@ -5656,7 +5666,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D188" s="2"/>
-      <c r="E188" s="13"/>
+      <c r="E188" s="7"/>
       <c r="F188" s="1"/>
       <c r="H188" s="2"/>
       <c r="I188" s="11"/>
@@ -5665,7 +5675,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D189" s="2"/>
-      <c r="E189" s="13"/>
+      <c r="E189" s="7"/>
       <c r="F189" s="1"/>
       <c r="H189" s="2"/>
       <c r="I189" s="11"/>
@@ -5674,7 +5684,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D190" s="2"/>
-      <c r="E190" s="13"/>
+      <c r="E190" s="7"/>
       <c r="F190" s="1"/>
       <c r="H190" s="2"/>
       <c r="I190" s="11"/>
@@ -5683,7 +5693,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D191" s="2"/>
-      <c r="E191" s="13"/>
+      <c r="E191" s="7"/>
       <c r="F191" s="1"/>
       <c r="H191" s="2"/>
       <c r="I191" s="11"/>
@@ -5692,7 +5702,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D192" s="2"/>
-      <c r="E192" s="13"/>
+      <c r="E192" s="7"/>
       <c r="F192" s="1"/>
       <c r="H192" s="2"/>
       <c r="I192" s="11"/>
@@ -5701,7 +5711,7 @@
     </row>
     <row r="193" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D193" s="2"/>
-      <c r="E193" s="13"/>
+      <c r="E193" s="7"/>
       <c r="F193" s="1"/>
       <c r="H193" s="2"/>
       <c r="I193" s="11"/>
@@ -5710,7 +5720,7 @@
     </row>
     <row r="194" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D194" s="2"/>
-      <c r="E194" s="13"/>
+      <c r="E194" s="7"/>
       <c r="F194" s="1"/>
       <c r="H194" s="2"/>
       <c r="I194" s="11"/>
@@ -5719,7 +5729,7 @@
     </row>
     <row r="195" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D195" s="2"/>
-      <c r="E195" s="13"/>
+      <c r="E195" s="7"/>
       <c r="F195" s="1"/>
       <c r="H195" s="2"/>
       <c r="I195" s="11"/>
@@ -5728,7 +5738,7 @@
     </row>
     <row r="196" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D196" s="2"/>
-      <c r="E196" s="13"/>
+      <c r="E196" s="7"/>
       <c r="F196" s="1"/>
       <c r="H196" s="2"/>
       <c r="I196" s="11"/>
@@ -5737,7 +5747,7 @@
     </row>
     <row r="197" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D197" s="2"/>
-      <c r="E197" s="13"/>
+      <c r="E197" s="7"/>
       <c r="F197" s="1"/>
       <c r="H197" s="2"/>
       <c r="I197" s="11"/>
@@ -5746,7 +5756,7 @@
     </row>
     <row r="198" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D198" s="2"/>
-      <c r="E198" s="13"/>
+      <c r="E198" s="7"/>
       <c r="F198" s="1"/>
       <c r="H198" s="2"/>
       <c r="I198" s="11"/>
@@ -5755,7 +5765,7 @@
     </row>
     <row r="199" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D199" s="2"/>
-      <c r="E199" s="13"/>
+      <c r="E199" s="7"/>
       <c r="F199" s="1"/>
       <c r="H199" s="2"/>
       <c r="I199" s="11"/>
@@ -5764,7 +5774,7 @@
     </row>
     <row r="200" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D200" s="2"/>
-      <c r="E200" s="13"/>
+      <c r="E200" s="7"/>
       <c r="F200" s="1"/>
       <c r="H200" s="2"/>
       <c r="I200" s="11"/>

--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\2026_GGJ\Assets\StreamingAssets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15439\Downloads\Build\Build\2026 GGJ_Data\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A61FE52-D906-4C0C-85C9-C5493AE9C275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13588487-8025-4043-A332-6CD160CF8953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="3760" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事件1" sheetId="1" r:id="rId1"/>
@@ -1277,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N200"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1291,10 +1291,10 @@
     <col min="4" max="4" width="4.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.08984375" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.08984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.90625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="30.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.08984375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="37.90625" style="13" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7265625" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="16.1796875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -1367,7 +1367,7 @@
       <c r="I2" s="5"/>
       <c r="K2" s="9"/>
       <c r="N2" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1417,9 +1417,6 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="K4" s="9"/>
-      <c r="M4" s="1">
-        <v>100</v>
-      </c>
     </row>
     <row r="5" spans="1:14" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1447,6 +1444,9 @@
       <c r="K5" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1474,6 +1474,9 @@
       <c r="K6" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1501,6 +1504,9 @@
       <c r="K7" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1528,6 +1534,9 @@
       <c r="K8" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1597,6 +1606,9 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
+      <c r="M11" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -1644,6 +1656,9 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="K13" s="9"/>
+      <c r="M13" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1692,6 +1707,9 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="K15" s="9"/>
+      <c r="M15" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1717,7 +1735,7 @@
       <c r="I16" s="5"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1740,8 +1758,11 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -1763,7 +1784,7 @@
       </c>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1775,7 +1796,7 @@
       <c r="I19" s="5"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -1799,7 +1820,7 @@
       <c r="I20" s="5"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -1826,8 +1847,11 @@
       <c r="K21" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -1854,8 +1878,11 @@
       <c r="K22" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -1882,8 +1909,11 @@
       <c r="K23" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1910,8 +1940,11 @@
       <c r="K24" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -1935,7 +1968,7 @@
       <c r="I25" s="5"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -1958,8 +1991,11 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M26" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
@@ -1983,7 +2019,7 @@
       <c r="I27" s="5"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -2006,8 +2042,11 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M28" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -2031,7 +2070,7 @@
       <c r="I29" s="5"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -2055,7 +2094,7 @@
       <c r="I30" s="5"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -2078,8 +2117,11 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M31" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>8</v>
       </c>
@@ -2103,7 +2145,7 @@
       <c r="I32" s="5"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
@@ -2126,8 +2168,11 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M33" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -2149,7 +2194,7 @@
       </c>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2161,7 +2206,7 @@
       <c r="I35" s="5"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
@@ -2185,7 +2230,7 @@
       <c r="I36" s="5"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
@@ -2209,7 +2254,7 @@
       <c r="I37" s="5"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="1:11" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -2236,8 +2281,11 @@
       <c r="K38" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -2264,8 +2312,11 @@
       <c r="K39" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -2292,8 +2343,11 @@
       <c r="K40" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -2320,8 +2374,11 @@
       <c r="K41" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -2344,8 +2401,11 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M42" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
@@ -2368,8 +2428,11 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M43" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
@@ -2393,7 +2456,7 @@
       <c r="I44" s="5"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
@@ -2416,8 +2479,11 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M45" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -2441,7 +2507,7 @@
       <c r="I46" s="5"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -2464,8 +2530,11 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M47" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>39</v>
       </c>
@@ -2487,7 +2556,7 @@
       </c>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2499,7 +2568,7 @@
       <c r="I49" s="5"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>8</v>
       </c>
@@ -2523,7 +2592,7 @@
       <c r="I50" s="5"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
@@ -2547,7 +2616,7 @@
       <c r="I51" s="5"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -2574,8 +2643,11 @@
       <c r="K52" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>8</v>
       </c>
@@ -2599,7 +2671,7 @@
       <c r="I53" s="5"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
@@ -2626,8 +2698,11 @@
       <c r="K54" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>8</v>
       </c>
@@ -2651,7 +2726,7 @@
       <c r="I55" s="5"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -2678,8 +2753,11 @@
       <c r="K56" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>8</v>
       </c>
@@ -2703,7 +2781,7 @@
       <c r="I57" s="5"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>11</v>
       </c>
@@ -2730,8 +2808,11 @@
       <c r="K58" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>8</v>
       </c>
@@ -2755,7 +2836,7 @@
       <c r="I59" s="5"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>8</v>
       </c>
@@ -2779,7 +2860,7 @@
       <c r="I60" s="5"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>8</v>
       </c>
@@ -2802,8 +2883,11 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="K61" s="9"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M61" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>8</v>
       </c>
@@ -2827,7 +2911,7 @@
       <c r="I62" s="5"/>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>8</v>
       </c>
@@ -2850,8 +2934,11 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="K63" s="9"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M63" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>8</v>
       </c>
@@ -2874,8 +2961,11 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="K64" s="9"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M64" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>8</v>
       </c>
@@ -2898,8 +2988,11 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="K65" s="9"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M65" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>39</v>
       </c>
@@ -2921,7 +3014,7 @@
       </c>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2933,7 +3026,7 @@
       <c r="I67" s="5"/>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>95</v>
       </c>
@@ -2957,7 +3050,7 @@
       <c r="I68" s="5"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>95</v>
       </c>
@@ -2981,7 +3074,7 @@
       <c r="I69" s="5"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>95</v>
       </c>
@@ -3005,7 +3098,7 @@
       <c r="I70" s="5"/>
       <c r="K70" s="9"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>95</v>
       </c>
@@ -3029,7 +3122,7 @@
       <c r="I71" s="5"/>
       <c r="K71" s="9"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>95</v>
       </c>
@@ -3053,7 +3146,7 @@
       <c r="I72" s="5"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>11</v>
       </c>
@@ -3080,8 +3173,11 @@
       <c r="K73" s="9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>95</v>
       </c>
@@ -3105,7 +3201,7 @@
       <c r="I74" s="5"/>
       <c r="K74" s="9"/>
     </row>
-    <row r="75" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>11</v>
       </c>
@@ -3132,8 +3228,11 @@
       <c r="K75" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>95</v>
       </c>
@@ -3157,7 +3256,7 @@
       <c r="I76" s="5"/>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>11</v>
       </c>
@@ -3184,8 +3283,11 @@
       <c r="K77" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>95</v>
       </c>
@@ -3209,7 +3311,7 @@
       <c r="I78" s="5"/>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>11</v>
       </c>
@@ -3236,8 +3338,11 @@
       <c r="K79" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>95</v>
       </c>
@@ -3261,7 +3366,7 @@
       <c r="I80" s="5"/>
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>95</v>
       </c>
@@ -3285,7 +3390,7 @@
       <c r="I81" s="5"/>
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>95</v>
       </c>
@@ -3308,8 +3413,11 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="K82" s="9"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M82" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>39</v>
       </c>
@@ -3331,7 +3439,7 @@
       </c>
       <c r="K83" s="9"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>95</v>
       </c>
@@ -3355,7 +3463,7 @@
       <c r="I84" s="5"/>
       <c r="K84" s="9"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>95</v>
       </c>
@@ -3379,7 +3487,7 @@
       <c r="I85" s="5"/>
       <c r="K85" s="9"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>95</v>
       </c>
@@ -3402,8 +3510,11 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="K86" s="9"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M86" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>39</v>
       </c>
@@ -3425,7 +3536,7 @@
       </c>
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>95</v>
       </c>
@@ -3448,8 +3559,11 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="K88" s="9"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M88" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>39</v>
       </c>
@@ -3471,7 +3585,7 @@
       </c>
       <c r="K89" s="9"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>95</v>
       </c>
@@ -3494,8 +3608,11 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="K90" s="9"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M90" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>39</v>
       </c>
@@ -3517,7 +3634,7 @@
       </c>
       <c r="K91" s="9"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3529,7 +3646,7 @@
       <c r="I92" s="5"/>
       <c r="K92" s="9"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>95</v>
       </c>
@@ -3553,7 +3670,7 @@
       <c r="I93" s="5"/>
       <c r="K93" s="9"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>95</v>
       </c>
@@ -3577,7 +3694,7 @@
       <c r="I94" s="5"/>
       <c r="K94" s="9"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>95</v>
       </c>
@@ -3601,7 +3718,7 @@
       <c r="I95" s="5"/>
       <c r="K95" s="9"/>
     </row>
-    <row r="96" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>11</v>
       </c>
@@ -3628,8 +3745,11 @@
       <c r="K96" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L96" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>11</v>
       </c>
@@ -3656,8 +3776,11 @@
       <c r="K97" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>11</v>
       </c>
@@ -3684,8 +3807,11 @@
       <c r="K98" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>11</v>
       </c>
@@ -3712,8 +3838,11 @@
       <c r="K99" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>95</v>
       </c>
@@ -3737,7 +3866,7 @@
       <c r="I100" s="5"/>
       <c r="K100" s="9"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>95</v>
       </c>
@@ -3761,7 +3890,7 @@
       <c r="I101" s="5"/>
       <c r="K101" s="9"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>95</v>
       </c>
@@ -3784,8 +3913,11 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="K102" s="9"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M102" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>95</v>
       </c>
@@ -3809,7 +3941,7 @@
       <c r="I103" s="5"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>95</v>
       </c>
@@ -3832,8 +3964,11 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="K104" s="9"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M104" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>95</v>
       </c>
@@ -3856,8 +3991,11 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="K105" s="9"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M105" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>95</v>
       </c>
@@ -3880,8 +4018,11 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="K106" s="9"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M106" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>39</v>
       </c>
@@ -3903,7 +4044,7 @@
       </c>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3915,7 +4056,7 @@
       <c r="I108" s="5"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>95</v>
       </c>
@@ -3939,7 +4080,7 @@
       <c r="I109" s="5"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>95</v>
       </c>
@@ -3963,7 +4104,7 @@
       <c r="I110" s="5"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>95</v>
       </c>
@@ -3987,7 +4128,7 @@
       <c r="I111" s="5"/>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>11</v>
       </c>
@@ -4014,8 +4155,11 @@
       <c r="K112" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L112" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>11</v>
       </c>
@@ -4042,8 +4186,11 @@
       <c r="K113" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L113" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>11</v>
       </c>
@@ -4070,8 +4217,11 @@
       <c r="K114" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>11</v>
       </c>
@@ -4098,8 +4248,11 @@
       <c r="K115" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>95</v>
       </c>
@@ -4122,8 +4275,11 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="K116" s="9"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M116" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>95</v>
       </c>
@@ -4147,7 +4303,7 @@
       <c r="I117" s="5"/>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>95</v>
       </c>
@@ -4170,8 +4326,11 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="K118" s="9"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M118" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>95</v>
       </c>
@@ -4194,8 +4353,11 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="K119" s="9"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M119" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>95</v>
       </c>
@@ -4218,8 +4380,11 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="K120" s="9"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M120" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>39</v>
       </c>
@@ -4241,7 +4406,7 @@
       </c>
       <c r="K121" s="9"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4253,7 +4418,7 @@
       <c r="I122" s="5"/>
       <c r="K122" s="9"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>95</v>
       </c>
@@ -4277,7 +4442,7 @@
       <c r="I123" s="5"/>
       <c r="K123" s="9"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>95</v>
       </c>
@@ -4301,7 +4466,7 @@
       <c r="I124" s="5"/>
       <c r="K124" s="9"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>95</v>
       </c>
@@ -4325,7 +4490,7 @@
       <c r="I125" s="5"/>
       <c r="K125" s="9"/>
     </row>
-    <row r="126" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>11</v>
       </c>
@@ -4352,8 +4517,11 @@
       <c r="K126" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L126" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>11</v>
       </c>
@@ -4380,8 +4548,11 @@
       <c r="K127" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L127" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>11</v>
       </c>
@@ -4408,8 +4579,11 @@
       <c r="K128" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L128" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>11</v>
       </c>
@@ -4436,8 +4610,11 @@
       <c r="K129" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>95</v>
       </c>
@@ -4461,7 +4638,7 @@
       <c r="I130" s="5"/>
       <c r="K130" s="9"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>95</v>
       </c>
@@ -4485,7 +4662,7 @@
       <c r="I131" s="5"/>
       <c r="K131" s="9"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>95</v>
       </c>
@@ -4508,8 +4685,11 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="K132" s="9"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M132" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>95</v>
       </c>
@@ -4533,7 +4713,7 @@
       <c r="I133" s="5"/>
       <c r="K133" s="9"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>95</v>
       </c>
@@ -4556,8 +4736,11 @@
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="K134" s="9"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M134" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>95</v>
       </c>
@@ -4580,8 +4763,11 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="K135" s="9"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M135" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>95</v>
       </c>
@@ -4604,8 +4790,11 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="K136" s="9"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M136" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>39</v>
       </c>
@@ -4627,7 +4816,7 @@
       </c>
       <c r="K137" s="9"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4639,7 +4828,7 @@
       <c r="I138" s="5"/>
       <c r="K138" s="9"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>95</v>
       </c>
@@ -4663,7 +4852,7 @@
       <c r="I139" s="5"/>
       <c r="K139" s="9"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>95</v>
       </c>
@@ -4687,7 +4876,7 @@
       <c r="I140" s="5"/>
       <c r="K140" s="9"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>95</v>
       </c>
@@ -4711,7 +4900,7 @@
       <c r="I141" s="5"/>
       <c r="K141" s="9"/>
     </row>
-    <row r="142" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>11</v>
       </c>
@@ -4738,8 +4927,11 @@
       <c r="K142" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L142" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>11</v>
       </c>
@@ -4766,8 +4958,11 @@
       <c r="K143" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L143" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>11</v>
       </c>
@@ -4794,8 +4989,11 @@
       <c r="K144" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>11</v>
       </c>
@@ -4822,8 +5020,11 @@
       <c r="K145" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>95</v>
       </c>
@@ -4846,8 +5047,11 @@
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="K146" s="9"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M146" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>95</v>
       </c>
@@ -4864,14 +5068,14 @@
         <v>152</v>
       </c>
       <c r="F147" s="5">
-        <v>9009</v>
+        <v>9007</v>
       </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="K147" s="9"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>95</v>
       </c>
@@ -4894,8 +5098,11 @@
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="K148" s="9"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M148" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>95</v>
       </c>
@@ -4918,8 +5125,11 @@
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="K149" s="9"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M149" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>95</v>
       </c>
@@ -4942,8 +5152,11 @@
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="K150" s="9"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M150" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>39</v>
       </c>
@@ -4965,7 +5178,7 @@
       </c>
       <c r="K151" s="9"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -4977,7 +5190,7 @@
       <c r="I152" s="5"/>
       <c r="K152" s="9"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>95</v>
       </c>
@@ -5001,7 +5214,7 @@
       <c r="I153" s="5"/>
       <c r="K153" s="9"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>11</v>
       </c>
@@ -5028,8 +5241,11 @@
       <c r="K154" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>11</v>
       </c>
@@ -5056,8 +5272,11 @@
       <c r="K155" s="9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>11</v>
       </c>
@@ -5084,8 +5303,11 @@
       <c r="K156" s="9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L156" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>182</v>
       </c>
@@ -5112,8 +5334,11 @@
       <c r="K157" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>95</v>
       </c>
@@ -5133,8 +5358,11 @@
         <v>10009</v>
       </c>
       <c r="K158" s="9"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M158" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>95</v>
       </c>
@@ -5155,7 +5383,7 @@
       </c>
       <c r="K159" s="9"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>95</v>
       </c>
@@ -5176,7 +5404,7 @@
       </c>
       <c r="K160" s="9"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>95</v>
       </c>
@@ -5196,8 +5424,11 @@
         <v>10009</v>
       </c>
       <c r="K161" s="9"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M161" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>95</v>
       </c>
@@ -5217,8 +5448,11 @@
         <v>10009</v>
       </c>
       <c r="K162" s="9"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M162" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>95</v>
       </c>
@@ -5238,8 +5472,11 @@
         <v>10009</v>
       </c>
       <c r="K163" s="9"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M163" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>39</v>
       </c>
@@ -5255,13 +5492,13 @@
       </c>
       <c r="K164" s="9"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="C165" s="5"/>
       <c r="E165" s="10"/>
       <c r="K165" s="9"/>
     </row>
-    <row r="166" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>95</v>
       </c>
@@ -5278,11 +5515,11 @@
         <v>169</v>
       </c>
       <c r="F166" s="7">
-        <v>11001</v>
+        <v>11002</v>
       </c>
       <c r="K166" s="9"/>
     </row>
-    <row r="167" spans="1:11" ht="52" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="52" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>182</v>
       </c>
@@ -5307,8 +5544,11 @@
       <c r="K167" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L167" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>182</v>
       </c>
@@ -5333,8 +5573,11 @@
       <c r="K168" s="9" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+      <c r="L168" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>182</v>
       </c>
@@ -5359,8 +5602,11 @@
       <c r="K169" s="9" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" ht="26" x14ac:dyDescent="0.25">
+      <c r="L169" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>182</v>
       </c>
@@ -5385,8 +5631,11 @@
       <c r="K170" s="9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>95</v>
       </c>
@@ -5407,7 +5656,7 @@
       </c>
       <c r="K171" s="9"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>95</v>
       </c>
@@ -5427,8 +5676,11 @@
         <v>11005</v>
       </c>
       <c r="K172" s="9"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M172" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>39</v>
       </c>
@@ -5447,7 +5699,7 @@
       </c>
       <c r="K173" s="9"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>95</v>
       </c>
@@ -5468,7 +5720,7 @@
       </c>
       <c r="K174" s="9"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>95</v>
       </c>
@@ -5489,7 +5741,7 @@
       </c>
       <c r="K175" s="9"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>95</v>
       </c>
@@ -5510,7 +5762,7 @@
       </c>
       <c r="K176" s="9"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>39</v>
       </c>
@@ -5520,13 +5772,16 @@
       <c r="C177" s="5"/>
       <c r="E177" s="10"/>
       <c r="K177" s="9"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M177" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="C178" s="5"/>
       <c r="E178" s="10"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>95</v>
       </c>
@@ -5543,146 +5798,137 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B180" s="5">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="E180" s="10"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B181" s="5">
         <v>12002</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E180" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F180" s="7">
-        <v>12003</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B181" s="5">
-        <v>12003</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E181" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F181" s="7">
+        <v>12003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B182" s="5">
+        <v>12003</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F181" s="7">
+      <c r="F182" s="7">
         <v>12004</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B182" s="5">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="E183" s="10"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B184" s="5">
         <v>12004</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E182" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F182" s="7">
-        <v>12005</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B183" s="5">
-        <v>12005</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E183" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F183" s="7">
-        <v>12006</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B184" s="5">
-        <v>12006</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E184" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F184" s="7">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B185" s="5">
+        <v>12005</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F185" s="7">
+        <v>12006</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B186" s="5">
+        <v>12006</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F184" s="7">
+      <c r="F186" s="7">
         <v>12007</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B185" s="5">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="E187" s="10"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B188" s="5">
         <v>12007</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C188" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E185" s="10" t="s">
+      <c r="E188" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F185" s="7">
+      <c r="F188" s="7">
         <v>12008</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B189" s="5">
         <v>12008</v>
       </c>
-      <c r="C186" s="5"/>
-      <c r="E186" s="10"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D187" s="2"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="1"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="11"/>
-      <c r="J187" s="2"/>
-      <c r="K187" s="1"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D188" s="2"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="1"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="11"/>
-      <c r="J188" s="2"/>
-      <c r="K188" s="1"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D189" s="2"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="1"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="11"/>
-      <c r="J189" s="2"/>
-      <c r="K189" s="1"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C189" s="5"/>
+      <c r="E189" s="10"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D190" s="2"/>
       <c r="E190" s="7"/>
       <c r="F190" s="1"/>
@@ -5691,7 +5937,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D191" s="2"/>
       <c r="E191" s="7"/>
       <c r="F191" s="1"/>
@@ -5700,7 +5946,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D192" s="2"/>
       <c r="E192" s="7"/>
       <c r="F192" s="1"/>
@@ -5780,6 +6026,33 @@
       <c r="I200" s="11"/>
       <c r="J200" s="2"/>
       <c r="K200" s="1"/>
+    </row>
+    <row r="201" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D201" s="2"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="1"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="1"/>
+    </row>
+    <row r="202" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D202" s="2"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="1"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="11"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="1"/>
+    </row>
+    <row r="203" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D203" s="2"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="1"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15439\Downloads\Build\Build\2026 GGJ_Data\StreamingAssets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\2026_GGJ\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13588487-8025-4043-A332-6CD160CF8953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514E57D2-0A28-46CF-85AF-4430E69B7DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="3760" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事件1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="210">
   <si>
     <t>标志</t>
   </si>
@@ -781,6 +781,42 @@
   </si>
   <si>
     <t>totaltime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小策听后十分难过，开发花费时间增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小策听后大受鼓舞，开发花费时间减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程听后十分难过，开发花费时间增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程听后大受鼓舞，开发花费时间减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小美听后十分难过，开发花费时间增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小美听后大受鼓舞，开发花费时间减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小音听后十分难过，开发花费时间增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小音听后大受鼓舞，开发花费时间减少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N203"/>
+  <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1290,16 +1326,18 @@
     <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="4.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.08984375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="37.90625" style="13" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7265625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.1796875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="12" max="14" width="8.7265625" style="1"/>
+    <col min="15" max="15" width="36.08984375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1342,8 +1380,11 @@
       <c r="N1" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1367,10 +1408,10 @@
       <c r="I2" s="5"/>
       <c r="K2" s="9"/>
       <c r="N2" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1435,7 @@
       <c r="I3" s="5"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1418,7 +1459,7 @@
       <c r="I4" s="5"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:14" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1448,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1478,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1508,7 +1549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1538,7 +1579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1561,7 +1602,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +1625,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1607,10 +1648,11 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="M11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1633,7 +1675,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1657,10 +1699,10 @@
       <c r="I13" s="5"/>
       <c r="K13" s="9"/>
       <c r="M13" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1684,7 +1726,7 @@
       <c r="I14" s="5"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1708,10 +1750,13 @@
       <c r="I15" s="5"/>
       <c r="K15" s="9"/>
       <c r="M15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="O15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1735,7 +1780,7 @@
       <c r="I16" s="5"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1759,10 +1804,13 @@
       <c r="I17" s="5"/>
       <c r="K17" s="9"/>
       <c r="M17" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="O17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -1784,7 +1832,7 @@
       </c>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1796,7 +1844,7 @@
       <c r="I19" s="5"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -1820,7 +1868,7 @@
       <c r="I20" s="5"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -1851,7 +1899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -1882,7 +1930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -1913,7 +1961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1944,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -1968,7 +2016,7 @@
       <c r="I25" s="5"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -1992,10 +2040,13 @@
       <c r="I26" s="5"/>
       <c r="K26" s="9"/>
       <c r="M26" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="O26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
@@ -2019,7 +2070,7 @@
       <c r="I27" s="5"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -2043,10 +2094,10 @@
       <c r="I28" s="5"/>
       <c r="K28" s="9"/>
       <c r="M28" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -2070,7 +2121,7 @@
       <c r="I29" s="5"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -2094,7 +2145,7 @@
       <c r="I30" s="5"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -2118,10 +2169,10 @@
       <c r="I31" s="5"/>
       <c r="K31" s="9"/>
       <c r="M31" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>8</v>
       </c>
@@ -2145,7 +2196,7 @@
       <c r="I32" s="5"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
@@ -2169,10 +2220,13 @@
       <c r="I33" s="5"/>
       <c r="K33" s="9"/>
       <c r="M33" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="O33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -2194,7 +2248,7 @@
       </c>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2206,7 +2260,7 @@
       <c r="I35" s="5"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
@@ -2230,7 +2284,7 @@
       <c r="I36" s="5"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
@@ -2254,7 +2308,7 @@
       <c r="I37" s="5"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="1:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -2285,7 +2339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -2316,7 +2370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -2347,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -2378,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -2402,10 +2456,10 @@
       <c r="I42" s="5"/>
       <c r="K42" s="9"/>
       <c r="M42" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
@@ -2429,10 +2483,10 @@
       <c r="I43" s="5"/>
       <c r="K43" s="9"/>
       <c r="M43" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
@@ -2456,7 +2510,7 @@
       <c r="I44" s="5"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
@@ -2480,10 +2534,13 @@
       <c r="I45" s="5"/>
       <c r="K45" s="9"/>
       <c r="M45" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="O45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -2507,7 +2564,7 @@
       <c r="I46" s="5"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -2531,10 +2588,13 @@
       <c r="I47" s="5"/>
       <c r="K47" s="9"/>
       <c r="M47" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="O47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>39</v>
       </c>
@@ -2556,7 +2616,7 @@
       </c>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2568,7 +2628,7 @@
       <c r="I49" s="5"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>8</v>
       </c>
@@ -2592,7 +2652,7 @@
       <c r="I50" s="5"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
@@ -2616,7 +2676,7 @@
       <c r="I51" s="5"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -2647,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>8</v>
       </c>
@@ -2671,7 +2731,7 @@
       <c r="I53" s="5"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
@@ -2702,7 +2762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>8</v>
       </c>
@@ -2726,7 +2786,7 @@
       <c r="I55" s="5"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -2757,7 +2817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>8</v>
       </c>
@@ -2781,7 +2841,7 @@
       <c r="I57" s="5"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>11</v>
       </c>
@@ -2812,7 +2872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>8</v>
       </c>
@@ -2836,7 +2896,7 @@
       <c r="I59" s="5"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>8</v>
       </c>
@@ -2860,7 +2920,7 @@
       <c r="I60" s="5"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>8</v>
       </c>
@@ -2884,10 +2944,13 @@
       <c r="I61" s="5"/>
       <c r="K61" s="9"/>
       <c r="M61" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="O61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>8</v>
       </c>
@@ -2911,7 +2974,7 @@
       <c r="I62" s="5"/>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>8</v>
       </c>
@@ -2935,10 +2998,10 @@
       <c r="I63" s="5"/>
       <c r="K63" s="9"/>
       <c r="M63" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>8</v>
       </c>
@@ -2962,7 +3025,10 @@
       <c r="I64" s="5"/>
       <c r="K64" s="9"/>
       <c r="M64" s="1">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="O64" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -2989,7 +3055,7 @@
       <c r="I65" s="5"/>
       <c r="K65" s="9"/>
       <c r="M65" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3366,7 +3432,7 @@
       <c r="I80" s="5"/>
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>95</v>
       </c>
@@ -3390,7 +3456,7 @@
       <c r="I81" s="5"/>
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>95</v>
       </c>
@@ -3414,10 +3480,10 @@
       <c r="I82" s="5"/>
       <c r="K82" s="9"/>
       <c r="M82" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>39</v>
       </c>
@@ -3439,7 +3505,7 @@
       </c>
       <c r="K83" s="9"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>95</v>
       </c>
@@ -3463,7 +3529,7 @@
       <c r="I84" s="5"/>
       <c r="K84" s="9"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>95</v>
       </c>
@@ -3487,7 +3553,7 @@
       <c r="I85" s="5"/>
       <c r="K85" s="9"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>95</v>
       </c>
@@ -3511,10 +3577,13 @@
       <c r="I86" s="5"/>
       <c r="K86" s="9"/>
       <c r="M86" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="O86" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>39</v>
       </c>
@@ -3536,7 +3605,7 @@
       </c>
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>95</v>
       </c>
@@ -3560,10 +3629,13 @@
       <c r="I88" s="5"/>
       <c r="K88" s="9"/>
       <c r="M88" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="O88" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>39</v>
       </c>
@@ -3585,7 +3657,7 @@
       </c>
       <c r="K89" s="9"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>95</v>
       </c>
@@ -3609,10 +3681,10 @@
       <c r="I90" s="5"/>
       <c r="K90" s="9"/>
       <c r="M90" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>39</v>
       </c>
@@ -3634,7 +3706,7 @@
       </c>
       <c r="K91" s="9"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3646,7 +3718,7 @@
       <c r="I92" s="5"/>
       <c r="K92" s="9"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>95</v>
       </c>
@@ -3670,7 +3742,7 @@
       <c r="I93" s="5"/>
       <c r="K93" s="9"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>95</v>
       </c>
@@ -3694,7 +3766,7 @@
       <c r="I94" s="5"/>
       <c r="K94" s="9"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>95</v>
       </c>
@@ -3718,7 +3790,7 @@
       <c r="I95" s="5"/>
       <c r="K95" s="9"/>
     </row>
-    <row r="96" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>11</v>
       </c>
@@ -3749,7 +3821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>11</v>
       </c>
@@ -3780,7 +3852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>11</v>
       </c>
@@ -3811,7 +3883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>11</v>
       </c>
@@ -3842,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>95</v>
       </c>
@@ -3866,7 +3938,7 @@
       <c r="I100" s="5"/>
       <c r="K100" s="9"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>95</v>
       </c>
@@ -3890,7 +3962,7 @@
       <c r="I101" s="5"/>
       <c r="K101" s="9"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>95</v>
       </c>
@@ -3914,10 +3986,10 @@
       <c r="I102" s="5"/>
       <c r="K102" s="9"/>
       <c r="M102" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>95</v>
       </c>
@@ -3941,7 +4013,7 @@
       <c r="I103" s="5"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>95</v>
       </c>
@@ -3965,10 +4037,10 @@
       <c r="I104" s="5"/>
       <c r="K104" s="9"/>
       <c r="M104" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>95</v>
       </c>
@@ -3992,10 +4064,13 @@
       <c r="I105" s="5"/>
       <c r="K105" s="9"/>
       <c r="M105" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="O105" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>95</v>
       </c>
@@ -4019,10 +4094,13 @@
       <c r="I106" s="5"/>
       <c r="K106" s="9"/>
       <c r="M106" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="O106" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>39</v>
       </c>
@@ -4044,7 +4122,7 @@
       </c>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -4056,7 +4134,7 @@
       <c r="I108" s="5"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>95</v>
       </c>
@@ -4080,7 +4158,7 @@
       <c r="I109" s="5"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>95</v>
       </c>
@@ -4104,7 +4182,7 @@
       <c r="I110" s="5"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>95</v>
       </c>
@@ -4128,7 +4206,7 @@
       <c r="I111" s="5"/>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>11</v>
       </c>
@@ -4159,7 +4237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>11</v>
       </c>
@@ -4190,7 +4268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>11</v>
       </c>
@@ -4221,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>11</v>
       </c>
@@ -4252,7 +4330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>95</v>
       </c>
@@ -4276,10 +4354,10 @@
       <c r="I116" s="5"/>
       <c r="K116" s="9"/>
       <c r="M116" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>95</v>
       </c>
@@ -4303,7 +4381,7 @@
       <c r="I117" s="5"/>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>95</v>
       </c>
@@ -4327,10 +4405,13 @@
       <c r="I118" s="5"/>
       <c r="K118" s="9"/>
       <c r="M118" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="O118" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>95</v>
       </c>
@@ -4354,10 +4435,13 @@
       <c r="I119" s="5"/>
       <c r="K119" s="9"/>
       <c r="M119" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="O119" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>95</v>
       </c>
@@ -4381,10 +4465,10 @@
       <c r="I120" s="5"/>
       <c r="K120" s="9"/>
       <c r="M120" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>39</v>
       </c>
@@ -4406,7 +4490,7 @@
       </c>
       <c r="K121" s="9"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4418,7 +4502,7 @@
       <c r="I122" s="5"/>
       <c r="K122" s="9"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>95</v>
       </c>
@@ -4442,7 +4526,7 @@
       <c r="I123" s="5"/>
       <c r="K123" s="9"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>95</v>
       </c>
@@ -4466,7 +4550,7 @@
       <c r="I124" s="5"/>
       <c r="K124" s="9"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>95</v>
       </c>
@@ -4490,7 +4574,7 @@
       <c r="I125" s="5"/>
       <c r="K125" s="9"/>
     </row>
-    <row r="126" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>11</v>
       </c>
@@ -4521,7 +4605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>11</v>
       </c>
@@ -4552,7 +4636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>11</v>
       </c>
@@ -4583,7 +4667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>11</v>
       </c>
@@ -4614,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>95</v>
       </c>
@@ -4638,7 +4722,7 @@
       <c r="I130" s="5"/>
       <c r="K130" s="9"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>95</v>
       </c>
@@ -4662,7 +4746,7 @@
       <c r="I131" s="5"/>
       <c r="K131" s="9"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>95</v>
       </c>
@@ -4686,10 +4770,10 @@
       <c r="I132" s="5"/>
       <c r="K132" s="9"/>
       <c r="M132" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>95</v>
       </c>
@@ -4713,7 +4797,7 @@
       <c r="I133" s="5"/>
       <c r="K133" s="9"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>95</v>
       </c>
@@ -4737,10 +4821,10 @@
       <c r="I134" s="5"/>
       <c r="K134" s="9"/>
       <c r="M134" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>95</v>
       </c>
@@ -4764,10 +4848,13 @@
       <c r="I135" s="5"/>
       <c r="K135" s="9"/>
       <c r="M135" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="O135" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>95</v>
       </c>
@@ -4791,10 +4878,13 @@
       <c r="I136" s="5"/>
       <c r="K136" s="9"/>
       <c r="M136" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="O136" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>39</v>
       </c>
@@ -4816,7 +4906,7 @@
       </c>
       <c r="K137" s="9"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4828,7 +4918,7 @@
       <c r="I138" s="5"/>
       <c r="K138" s="9"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>95</v>
       </c>
@@ -4852,7 +4942,7 @@
       <c r="I139" s="5"/>
       <c r="K139" s="9"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>95</v>
       </c>
@@ -4876,7 +4966,7 @@
       <c r="I140" s="5"/>
       <c r="K140" s="9"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>95</v>
       </c>
@@ -4900,7 +4990,7 @@
       <c r="I141" s="5"/>
       <c r="K141" s="9"/>
     </row>
-    <row r="142" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>11</v>
       </c>
@@ -4931,7 +5021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>11</v>
       </c>
@@ -4962,7 +5052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>11</v>
       </c>
@@ -4993,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>11</v>
       </c>
@@ -5024,7 +5114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>95</v>
       </c>
@@ -5048,10 +5138,10 @@
       <c r="I146" s="5"/>
       <c r="K146" s="9"/>
       <c r="M146" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>95</v>
       </c>
@@ -5075,7 +5165,7 @@
       <c r="I147" s="5"/>
       <c r="K147" s="9"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>95</v>
       </c>
@@ -5099,10 +5189,13 @@
       <c r="I148" s="5"/>
       <c r="K148" s="9"/>
       <c r="M148" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="O148" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>95</v>
       </c>
@@ -5126,10 +5219,13 @@
       <c r="I149" s="5"/>
       <c r="K149" s="9"/>
       <c r="M149" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="O149" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>95</v>
       </c>
@@ -5153,10 +5249,10 @@
       <c r="I150" s="5"/>
       <c r="K150" s="9"/>
       <c r="M150" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>39</v>
       </c>
@@ -5178,7 +5274,7 @@
       </c>
       <c r="K151" s="9"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -5190,7 +5286,7 @@
       <c r="I152" s="5"/>
       <c r="K152" s="9"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>95</v>
       </c>
@@ -5214,7 +5310,7 @@
       <c r="I153" s="5"/>
       <c r="K153" s="9"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>11</v>
       </c>
@@ -5245,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>11</v>
       </c>
@@ -5276,7 +5372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>11</v>
       </c>
@@ -5307,7 +5403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>182</v>
       </c>
@@ -5338,7 +5434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>95</v>
       </c>
@@ -5359,10 +5455,13 @@
       </c>
       <c r="K158" s="9"/>
       <c r="M158" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="O158" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>95</v>
       </c>
@@ -5383,7 +5482,7 @@
       </c>
       <c r="K159" s="9"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>95</v>
       </c>
@@ -5404,7 +5503,7 @@
       </c>
       <c r="K160" s="9"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>95</v>
       </c>
@@ -5425,10 +5524,13 @@
       </c>
       <c r="K161" s="9"/>
       <c r="M161" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="O161" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>95</v>
       </c>
@@ -5449,10 +5551,10 @@
       </c>
       <c r="K162" s="9"/>
       <c r="M162" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>95</v>
       </c>
@@ -5473,10 +5575,10 @@
       </c>
       <c r="K163" s="9"/>
       <c r="M163" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>39</v>
       </c>
@@ -5492,13 +5594,13 @@
       </c>
       <c r="K164" s="9"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="C165" s="5"/>
       <c r="E165" s="10"/>
       <c r="K165" s="9"/>
     </row>
-    <row r="166" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>95</v>
       </c>
@@ -5519,7 +5621,7 @@
       </c>
       <c r="K166" s="9"/>
     </row>
-    <row r="167" spans="1:13" ht="52" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="52" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>182</v>
       </c>
@@ -5548,7 +5650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>182</v>
       </c>
@@ -5577,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>182</v>
       </c>
@@ -5606,7 +5708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>182</v>
       </c>
@@ -5635,7 +5737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>95</v>
       </c>
@@ -5656,7 +5758,7 @@
       </c>
       <c r="K171" s="9"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>95</v>
       </c>
@@ -5677,10 +5779,13 @@
       </c>
       <c r="K172" s="9"/>
       <c r="M172" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="O172" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>39</v>
       </c>
@@ -5699,7 +5804,7 @@
       </c>
       <c r="K173" s="9"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>95</v>
       </c>
@@ -5720,7 +5825,7 @@
       </c>
       <c r="K174" s="9"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>95</v>
       </c>
@@ -5741,7 +5846,7 @@
       </c>
       <c r="K175" s="9"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>95</v>
       </c>
@@ -5761,8 +5866,14 @@
         <v>11009</v>
       </c>
       <c r="K176" s="9"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M176" s="1">
+        <v>500</v>
+      </c>
+      <c r="O176" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>39</v>
       </c>
@@ -5772,16 +5883,13 @@
       <c r="C177" s="5"/>
       <c r="E177" s="10"/>
       <c r="K177" s="9"/>
-      <c r="M177" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="C178" s="5"/>
       <c r="E178" s="10"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>95</v>
       </c>
@@ -5798,13 +5906,13 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="E180" s="10"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>95</v>
       </c>
@@ -5821,7 +5929,7 @@
         <v>12003</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>95</v>
       </c>
@@ -5838,13 +5946,13 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="E183" s="10"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>95</v>
       </c>
@@ -5861,7 +5969,7 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>95</v>
       </c>
@@ -5878,7 +5986,7 @@
         <v>12006</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>95</v>
       </c>
@@ -5895,13 +6003,13 @@
         <v>12007</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="E187" s="10"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>95</v>
       </c>
@@ -5918,7 +6026,7 @@
         <v>12008</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>39</v>
       </c>
@@ -5928,7 +6036,7 @@
       <c r="C189" s="5"/>
       <c r="E189" s="10"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D190" s="2"/>
       <c r="E190" s="7"/>
       <c r="F190" s="1"/>
@@ -5937,7 +6045,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D191" s="2"/>
       <c r="E191" s="7"/>
       <c r="F191" s="1"/>
@@ -5946,7 +6054,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D192" s="2"/>
       <c r="E192" s="7"/>
       <c r="F192" s="1"/>

--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\2026_GGJ\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514E57D2-0A28-46CF-85AF-4430E69B7DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AFEA76-AC44-4FD0-983F-A9D00265E9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,720 +103,722 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小策啊，我们之前也讨论了，加拍照系统的话要多花我们很多时间，我们只有48小时，时间上太紧张了，而且我们是个模拟GGJ的游戏，没必要的。</t>
+  </si>
+  <si>
+    <t>我们脑暴的时候就否你了，都开始开发了你现在怎么又跳出来想这个，这系统根本没啥加的必要，我们可是个模拟GGJ的游戏，要拍照干毛啊！！！</t>
+  </si>
+  <si>
+    <t>真是好想法啊，要不我们下次参加GGJ的时候用这个idea！</t>
+  </si>
+  <si>
+    <t>好啊，那就做呗，反正都做不完，加个功能也无所谓。</t>
+  </si>
+  <si>
+    <t>冷静面具（冷静地向他说明这个事情的难度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲伤面具（悲观地表示肯定做不完了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样啊</t>
+  </si>
+  <si>
+    <t>我知道了</t>
+  </si>
+  <si>
+    <t>那我接着回去写策划案！</t>
+  </si>
+  <si>
+    <t>说就说嘛，你干嘛还给我上压力</t>
+  </si>
+  <si>
+    <t>又不给我钱，我大不了不做了就是了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好耶！</t>
+  </si>
+  <si>
+    <t>其实我也知道这个要求不是太合理，那我接着去干活啦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎呀！你不要这么悲观嘛</t>
+  </si>
+  <si>
+    <t>不过看你积极性这么低，那感觉还是没啥必要</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚刚策划来找我了，他说如果我能在游戏里加拍照的话，他什么都会做的。我现在做了个原型，玩家按F11就可以拍照，能显示角色现在的血量和猝死率（是根据玩家的BUG数量和血量的比值来算的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（平静地告诉他你已经拒绝了策划）</t>
+  </si>
+  <si>
+    <t>愤怒面具（强烈批判程序）</t>
+  </si>
+  <si>
+    <t>快乐面具（肯定他的能力）</t>
+  </si>
+  <si>
+    <t>悲伤面具（说明他做了无用功）</t>
+  </si>
+  <si>
+    <t>哦，这个我跟策划聊过了，这个不用做，辛苦了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我天！他叫你做你就做！！！你这个人真是满脑子只想着他呢，怎么不用ALT+F4当截图键，，，别做了！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我去！这么厉害！但可惜诶，我们现在应该没什么时间做这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唉，做了就做了吧，反正大概率用不上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我会更专注在现在的工作上的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知道了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了就做了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘给你你来写？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你要的相机图标来力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【图片】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（平静地告诉TA你已经拒绝了策划）</t>
+  </si>
+  <si>
+    <t>（怒喷策划，叫美术去接着画界面去）</t>
+  </si>
+  <si>
+    <t>快乐面具（肯定TA的能力）</t>
+  </si>
+  <si>
+    <t>悲伤面具（为美术的作品表示惋惜）</t>
+  </si>
+  <si>
+    <t>遗憾，可能是没对齐，这个素材不需要了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我焯！狗策划居然用我的名义叫你干活！！！你接着画你的界面去，我去喷策划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好耶好耶！虽然这次好像用不上了，但可以留下次用诶！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O，原来用不上了，nmsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竟然是假传圣旨，遗憾离场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【扁扁地走开】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的艺术被赏识了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（满地打滚中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这么好看的图标，居然用不上了，TAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快门：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【一段10s的语音】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（？）</t>
+  </si>
+  <si>
+    <t>愤怒面具（！）</t>
+  </si>
+  <si>
+    <t>快乐面具（^3^）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲伤面具（TT）</t>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^3^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱你，但不用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗憾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难过了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可恶，原来不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也爱你^3^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背着我偷偷跟剩下几个谈需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤立我是吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿嘿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎呀，这是验证可行性，你就做做试试么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我反正是不赞成的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理性分析来看时间太紧张了，但还得看你自己的时间评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没门儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚决不同意，你想都不要想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好吧好吧，你做得其实还不错，就答应你吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但你们要注意时间哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唉，做了就做了吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你自己把握，还是得以核心系统为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我肯定会把握好时间的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而且也不需要调用太多别的资源，很快的，你放心，就做一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是，至于吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做就不做呗，反应那么大干什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真是的，老喜欢压力别人干什么，我不干了！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇！老大你最好了！！！我现在就去搞！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明白的明白的，我就做一点点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（分析局势）</t>
+  </si>
+  <si>
+    <t>愤怒面具（坚决否定）</t>
+  </si>
+  <si>
+    <t>快乐面具（爽快答应）</t>
+  </si>
+  <si>
+    <t>悲伤面具（消极对待）</t>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急急急！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加的照相系统有严重BUG！！！加了以后会和原来一个功能起冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你别着急，先debug一下，再不济就不要这个功能了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以的！！！干巴爹捏！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草…真是一堆事儿，不想管了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我草！！！！！！！！！！！！&amp;*&amp;……%……*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（冷静寻求解法）</t>
+  </si>
+  <si>
+    <t>愤怒面具（对电脑无能狂怒）</t>
+  </si>
+  <si>
+    <t>快乐面具（化身夸夸王，鼓励程序）</t>
+  </si>
+  <si>
+    <t>跳转逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK，我再看看，我写了四五千行的代码可不想丢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启一下居然好了......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别急，急也没用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哟西！冲刺！果然有效！你滴鼓励让我迅速找到了问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你这人能不能有点责任心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画不完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么策划又加新东西了，我以为只用画一个icon的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要不你跟策划商量一下，少画点？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实，我对你是有一些失望的。当初让你做美术，是高于你面试时的水平的。我是希望进来后，你能够拼一把，快速成长起来的。你这个层级，不是把事情做了就可以的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画不完就不画了，一起摆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 愤怒面具（给美术上压力）</t>
+  </si>
+  <si>
+    <t>快乐面具（化身夸夸王，鼓励美术）</t>
+  </si>
+  <si>
+    <t>算惹，不想沟通，我画就是了Orz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你怎么知道我喜欢跟人唱反调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你越压力我我越要干，冲刺冲刺冲！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好恶心，不要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太好了，一起摆烂吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做锤子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做不了捏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做等死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真是冷漠，走了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（不）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 愤怒面具（锤子）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 快乐面具（捏）</t>
+  </si>
+  <si>
+    <t>现在去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[一段锤子敲击的音效]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐等ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟你说了我不想干了，什么GGJ模拟器我也不想做了，策划一天天就是来这干杂活，好不容易有点想法还要被各种否定，不干了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咱们捋一捋啊——说实话，开会你提的那些框架，最后落地效果都好得出奇。很多我们觉得会卡壳的地方，你早就在方案里埋好解了。你要是走了，后面这摊子真没人能接得住。你还是很重要的，只不过这个需求如果加了真的有可能赶不上进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱干干，不干就滚！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你提那个需求我真仔细琢磨了，我觉得真行，就是我们这次时间实在是太紧张了，要不我肯定就塞了，这样吧，明天奶茶我请，这个系统我们下次一定做。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕子呜呜呜呜~不是我不想做你的需求，是真的没有时间啊呜呜呜呜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（理性分析）</t>
+  </si>
+  <si>
+    <t>愤怒面具（开始攻击）</t>
+  </si>
+  <si>
+    <t>快乐面具（鼓励安抚）</t>
+  </si>
+  <si>
+    <t>悲伤面具（以泪洗面）</t>
+  </si>
+  <si>
+    <t>唉，，，你都这么说了，那还说啥了，这次就不做这个了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以大橘为重.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚就滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁稀罕跟你组一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果5013或5021触发，则跳转——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果5017触发，则跳转——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果5019触发，则跳转——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞定了！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总算弄完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真不容易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一张！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画完了！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totaltime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小策听后十分难过，开发花费时间增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小策听后大受鼓舞，开发花费时间减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程听后十分难过，开发花费时间增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程听后大受鼓舞，开发花费时间减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小美听后十分难过，开发花费时间增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小美听后大受鼓舞，开发花费时间减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小音听后十分难过，开发花费时间增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小音听后大受鼓舞，开发花费时间减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>愤怒面具（生气地质疑他的想法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>快乐面具（给他画饼，叫他下次再做）</t>
-  </si>
-  <si>
-    <t>小策啊，我们之前也讨论了，加拍照系统的话要多花我们很多时间，我们只有48小时，时间上太紧张了，而且我们是个模拟GGJ的游戏，没必要的。</t>
-  </si>
-  <si>
-    <t>我们脑暴的时候就否你了，都开始开发了你现在怎么又跳出来想这个，这系统根本没啥加的必要，我们可是个模拟GGJ的游戏，要拍照干毛啊！！！</t>
-  </si>
-  <si>
-    <t>真是好想法啊，要不我们下次参加GGJ的时候用这个idea！</t>
-  </si>
-  <si>
-    <t>好啊，那就做呗，反正都做不完，加个功能也无所谓。</t>
-  </si>
-  <si>
-    <t>冷静面具（冷静地向他说明这个事情的难度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悲伤面具（悲观地表示肯定做不完了）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这样啊</t>
-  </si>
-  <si>
-    <t>我知道了</t>
-  </si>
-  <si>
-    <t>那我接着回去写策划案！</t>
-  </si>
-  <si>
-    <t>说就说嘛，你干嘛还给我上压力</t>
-  </si>
-  <si>
-    <t>又不给我钱，我大不了不做了就是了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好耶！</t>
-  </si>
-  <si>
-    <t>其实我也知道这个要求不是太合理，那我接着去干活啦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哎呀！你不要这么悲观嘛</t>
-  </si>
-  <si>
-    <t>不过看你积极性这么低，那感觉还是没啥必要</t>
-  </si>
-  <si>
-    <t>END</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚刚策划来找我了，他说如果我能在游戏里加拍照的话，他什么都会做的。我现在做了个原型，玩家按F11就可以拍照，能显示角色现在的血量和猝死率（是根据玩家的BUG数量和血量的比值来算的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷静面具（平静地告诉他你已经拒绝了策划）</t>
-  </si>
-  <si>
-    <t>愤怒面具（强烈批判程序）</t>
-  </si>
-  <si>
-    <t>快乐面具（肯定他的能力）</t>
-  </si>
-  <si>
-    <t>悲伤面具（说明他做了无用功）</t>
-  </si>
-  <si>
-    <t>哦，这个我跟策划聊过了，这个不用做，辛苦了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我天！他叫你做你就做！！！你这个人真是满脑子只想着他呢，怎么不用ALT+F4当截图键，，，别做了！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我去！这么厉害！但可惜诶，我们现在应该没什么时间做这个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唉，做了就做了吧，反正大概率用不上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我会更专注在现在的工作上的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知道了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做了就做了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>键盘给你你来写？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你要的相机图标来力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【图片】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷静面具（平静地告诉TA你已经拒绝了策划）</t>
-  </si>
-  <si>
-    <t>（怒喷策划，叫美术去接着画界面去）</t>
-  </si>
-  <si>
-    <t>快乐面具（肯定TA的能力）</t>
-  </si>
-  <si>
-    <t>悲伤面具（为美术的作品表示惋惜）</t>
-  </si>
-  <si>
-    <t>遗憾，可能是没对齐，这个素材不需要了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我焯！狗策划居然用我的名义叫你干活！！！你接着画你的界面去，我去喷策划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好耶好耶！虽然这次好像用不上了，但可以留下次用诶！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O，原来用不上了，nmsl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竟然是假传圣旨，遗憾离场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【扁扁地走开】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的艺术被赏识了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（满地打滚中）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这么好看的图标，居然用不上了，TAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快门：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【一段10s的语音】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷静面具（？）</t>
-  </si>
-  <si>
-    <t>愤怒面具（！）</t>
-  </si>
-  <si>
-    <t>快乐面具（^3^）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悲伤面具（TT）</t>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^3^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱你，但不用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗憾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难过了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可恶，原来不做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我也爱你^3^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么意思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背着我偷偷跟剩下几个谈需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孤立我是吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘿嘿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哎呀，这是验证可行性，你就做做试试么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我反正是不赞成的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理性分析来看时间太紧张了，但还得看你自己的时间评估</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没门儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚决不同意，你想都不要想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好吧好吧，你做得其实还不错，就答应你吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但你们要注意时间哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唉，做了就做了吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你自己把握，还是得以核心系统为主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我肯定会把握好时间的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而且也不需要调用太多别的资源，很快的，你放心，就做一点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是，至于吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不做就不做呗，反应那么大干什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真是的，老喜欢压力别人干什么，我不干了！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哇！老大你最好了！！！我现在就去搞！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明白的明白的，我就做一点点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷静面具（分析局势）</t>
-  </si>
-  <si>
-    <t>愤怒面具（坚决否定）</t>
-  </si>
-  <si>
-    <t>快乐面具（爽快答应）</t>
-  </si>
-  <si>
-    <t>悲伤面具（消极对待）</t>
-  </si>
-  <si>
-    <t>！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急急急！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新加的照相系统有严重BUG！！！加了以后会和原来一个功能起冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你别着急，先debug一下，再不济就不要这个功能了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你可以的！！！干巴爹捏！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草…真是一堆事儿，不想管了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我草！！！！！！！！！！！！&amp;*&amp;……%……*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷静面具（冷静寻求解法）</t>
-  </si>
-  <si>
-    <t>愤怒面具（对电脑无能狂怒）</t>
-  </si>
-  <si>
-    <t>快乐面具（化身夸夸王，鼓励程序）</t>
-  </si>
-  <si>
-    <t>跳转逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK，我再看看，我写了四五千行的代码可不想丢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重启一下居然好了......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别急，急也没用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哟西！冲刺！果然有效！你滴鼓励让我迅速找到了问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你这人能不能有点责任心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画不完了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QAQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么策划又加新东西了，我以为只用画一个icon的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要不你跟策划商量一下，少画点？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其实，我对你是有一些失望的。当初让你做美术，是高于你面试时的水平的。我是希望进来后，你能够拼一把，快速成长起来的。你这个层级，不是把事情做了就可以的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画不完就不画了，一起摆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 愤怒面具（给美术上压力）</t>
-  </si>
-  <si>
-    <t>快乐面具（化身夸夸王，鼓励美术）</t>
-  </si>
-  <si>
-    <t>算惹，不想沟通，我画就是了Orz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你怎么知道我喜欢跟人唱反调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你越压力我我越要干，冲刺冲刺冲！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好恶心，不要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太好了，一起摆烂吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做锤子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做不了捏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做等死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真是冷漠，走了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷静面具（不）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 愤怒面具（锤子）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 快乐面具（捏）</t>
-  </si>
-  <si>
-    <t>现在去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[一段锤子敲击的音效]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐等ing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟你说了我不想干了，什么GGJ模拟器我也不想做了，策划一天天就是来这干杂活，好不容易有点想法还要被各种否定，不干了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咱们捋一捋啊——说实话，开会你提的那些框架，最后落地效果都好得出奇。很多我们觉得会卡壳的地方，你早就在方案里埋好解了。你要是走了，后面这摊子真没人能接得住。你还是很重要的，只不过这个需求如果加了真的有可能赶不上进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱干干，不干就滚！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你提那个需求我真仔细琢磨了，我觉得真行，就是我们这次时间实在是太紧张了，要不我肯定就塞了，这样吧，明天奶茶我请，这个系统我们下次一定做。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕子呜呜呜呜~不是我不想做你的需求，是真的没有时间啊呜呜呜呜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷静面具（理性分析）</t>
-  </si>
-  <si>
-    <t>愤怒面具（开始攻击）</t>
-  </si>
-  <si>
-    <t>快乐面具（鼓励安抚）</t>
-  </si>
-  <si>
-    <t>悲伤面具（以泪洗面）</t>
-  </si>
-  <si>
-    <t>唉，，，你都这么说了，那还说啥了，这次就不做这个了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以大橘为重.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚就滚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谁稀罕跟你组一样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果5013或5021触发，则跳转——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果5017触发，则跳转——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果5019触发，则跳转——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搞定了！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总算弄完了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真不容易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一张！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画完了！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totaltime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小策听后十分难过，开发花费时间增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小策听后大受鼓舞，开发花费时间减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小程听后十分难过，开发花费时间增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小程听后大受鼓舞，开发花费时间减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小美听后十分难过，开发花费时间增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小美听后大受鼓舞，开发花费时间减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小音听后十分难过，开发花费时间增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小音听后大受鼓舞，开发花费时间减少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1316,7 +1318,7 @@
   <dimension ref="A1:O203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1369,19 +1371,19 @@
         <v>7</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1473,7 +1475,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5">
         <v>1005</v>
@@ -1483,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1">
         <v>3</v>
@@ -1503,7 +1505,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5">
         <v>1008</v>
@@ -1513,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1533,7 +1535,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5">
         <v>1010</v>
@@ -1543,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="L7" s="1">
         <v>4</v>
@@ -1563,7 +1565,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5">
         <v>1012</v>
@@ -1573,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L8" s="1">
         <v>2</v>
@@ -1593,7 +1595,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7">
         <v>1006</v>
@@ -1616,7 +1618,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7">
         <v>1007</v>
@@ -1639,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7">
         <v>1014</v>
@@ -1666,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="7">
         <v>1009</v>
@@ -1689,7 +1691,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="5">
         <v>1014</v>
@@ -1716,7 +1718,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="5">
         <v>1011</v>
@@ -1740,7 +1742,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="5">
         <v>1014</v>
@@ -1753,7 +1755,7 @@
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1770,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="5">
         <v>1013</v>
@@ -1794,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" s="5">
         <v>1014</v>
@@ -1807,12 +1809,12 @@
         <v>35</v>
       </c>
       <c r="O17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="5">
         <v>1014</v>
@@ -1858,7 +1860,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="5">
         <v>2002</v>
@@ -1882,7 +1884,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" s="5">
         <v>2003</v>
@@ -1893,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L21" s="1">
         <v>4</v>
@@ -1913,7 +1915,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F22" s="5">
         <v>2005</v>
@@ -1924,7 +1926,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L22" s="1">
         <v>2</v>
@@ -1944,7 +1946,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="5">
         <v>2007</v>
@@ -1955,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L23" s="1">
         <v>3</v>
@@ -1975,7 +1977,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" s="5">
         <v>2010</v>
@@ -1986,7 +1988,7 @@
         <v>3</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L24" s="1">
         <v>1</v>
@@ -2006,7 +2008,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F25" s="5">
         <v>2004</v>
@@ -2030,7 +2032,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" s="5">
         <v>2012</v>
@@ -2043,7 +2045,7 @@
         <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2060,7 +2062,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F27" s="5">
         <v>2006</v>
@@ -2084,7 +2086,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" s="7">
         <v>2012</v>
@@ -2111,7 +2113,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F29" s="7">
         <v>2008</v>
@@ -2135,7 +2137,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" s="7">
         <v>2009</v>
@@ -2159,7 +2161,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F31" s="7">
         <v>2012</v>
@@ -2186,7 +2188,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F32" s="7">
         <v>2011</v>
@@ -2210,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F33" s="5">
         <v>2012</v>
@@ -2223,12 +2225,12 @@
         <v>120</v>
       </c>
       <c r="O33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="5">
         <v>2012</v>
@@ -2274,7 +2276,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F36" s="5">
         <v>3002</v>
@@ -2298,7 +2300,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F37" s="5">
         <v>3003</v>
@@ -2322,7 +2324,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F38" s="5">
         <v>3004</v>
@@ -2333,7 +2335,7 @@
         <v>3</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L38" s="1">
         <v>2</v>
@@ -2353,7 +2355,7 @@
         <v>20</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F39" s="5">
         <v>3005</v>
@@ -2364,7 +2366,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L39" s="1">
         <v>3</v>
@@ -2384,7 +2386,7 @@
         <v>20</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F40" s="5">
         <v>3006</v>
@@ -2395,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L40" s="1">
         <v>1</v>
@@ -2415,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F41" s="5">
         <v>3008</v>
@@ -2426,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L41" s="1">
         <v>4</v>
@@ -2446,7 +2448,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F42" s="5">
         <v>3010</v>
@@ -2473,7 +2475,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F43" s="5">
         <v>3010</v>
@@ -2500,7 +2502,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F44" s="5">
         <v>3007</v>
@@ -2524,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F45" s="5">
         <v>3010</v>
@@ -2537,7 +2539,7 @@
         <v>120</v>
       </c>
       <c r="O45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2554,7 +2556,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F46" s="5">
         <v>3009</v>
@@ -2578,7 +2580,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F47" s="5">
         <v>3010</v>
@@ -2591,18 +2593,18 @@
         <v>25</v>
       </c>
       <c r="O47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B48" s="5">
         <v>3010</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2636,13 +2638,13 @@
         <v>4001</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F50" s="5">
         <v>4002</v>
@@ -2660,13 +2662,13 @@
         <v>4002</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="F51" s="5">
         <v>4003</v>
@@ -2690,7 +2692,7 @@
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F52" s="5">
         <v>4004</v>
@@ -2701,7 +2703,7 @@
         <v>3</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
@@ -2721,7 +2723,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F53" s="5">
         <v>4008</v>
@@ -2745,7 +2747,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F54" s="5">
         <v>4005</v>
@@ -2756,7 +2758,7 @@
         <v>3</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L54" s="1">
         <v>2</v>
@@ -2776,7 +2778,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F55" s="5">
         <v>4010</v>
@@ -2800,7 +2802,7 @@
         <v>20</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F56" s="5">
         <v>4006</v>
@@ -2811,7 +2813,7 @@
         <v>3</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L56" s="1">
         <v>4</v>
@@ -2831,7 +2833,7 @@
         <v>20</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F57" s="5">
         <v>4012</v>
@@ -2855,7 +2857,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F58" s="5">
         <v>4007</v>
@@ -2866,7 +2868,7 @@
         <v>3</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L58" s="1">
         <v>3</v>
@@ -2886,7 +2888,7 @@
         <v>20</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F59" s="5">
         <v>4013</v>
@@ -2904,13 +2906,13 @@
         <v>4008</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F60" s="5">
         <v>4009</v>
@@ -2928,13 +2930,13 @@
         <v>4009</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F61" s="5">
         <v>4014</v>
@@ -2947,7 +2949,7 @@
         <v>120</v>
       </c>
       <c r="O61" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -2958,13 +2960,13 @@
         <v>4010</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F62" s="5">
         <v>4011</v>
@@ -2982,13 +2984,13 @@
         <v>4011</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F63" s="5">
         <v>4014</v>
@@ -3009,13 +3011,13 @@
         <v>4012</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F64" s="5">
         <v>4014</v>
@@ -3028,7 +3030,7 @@
         <v>25</v>
       </c>
       <c r="O64" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3039,13 +3041,13 @@
         <v>4013</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F65" s="5">
         <v>4014</v>
@@ -3060,7 +3062,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B66" s="5">
         <v>4014</v>
@@ -3094,7 +3096,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B68" s="5">
         <v>5001</v>
@@ -3103,10 +3105,10 @@
         <v>18</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F68" s="5">
         <v>5002</v>
@@ -3118,7 +3120,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B69" s="5">
         <v>5002</v>
@@ -3130,7 +3132,7 @@
         <v>20</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" s="5">
         <v>5003</v>
@@ -3142,7 +3144,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B70" s="5">
         <v>5003</v>
@@ -3154,7 +3156,7 @@
         <v>20</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F70" s="5">
         <v>5004</v>
@@ -3166,7 +3168,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B71" s="5">
         <v>5004</v>
@@ -3178,7 +3180,7 @@
         <v>20</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="5">
         <v>5005</v>
@@ -3190,7 +3192,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B72" s="5">
         <v>5005</v>
@@ -3199,10 +3201,10 @@
         <v>18</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="5">
         <v>5006</v>
@@ -3226,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="5">
         <v>5007</v>
@@ -3237,7 +3239,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L73" s="1">
         <v>3</v>
@@ -3245,7 +3247,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B74" s="5">
         <v>5007</v>
@@ -3257,7 +3259,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="5">
         <v>5011</v>
@@ -3281,7 +3283,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F75" s="5">
         <v>5008</v>
@@ -3292,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L75" s="1">
         <v>1</v>
@@ -3300,7 +3302,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B76" s="5">
         <v>5008</v>
@@ -3312,7 +3314,7 @@
         <v>20</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F76" s="5">
         <v>5014</v>
@@ -3336,7 +3338,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F77" s="5">
         <v>5009</v>
@@ -3347,7 +3349,7 @@
         <v>3</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L77" s="1">
         <v>4</v>
@@ -3355,7 +3357,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B78" s="5">
         <v>5009</v>
@@ -3367,7 +3369,7 @@
         <v>20</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F78" s="5">
         <v>5018</v>
@@ -3391,7 +3393,7 @@
         <v>20</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F79" s="5">
         <v>5010</v>
@@ -3402,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L79" s="1">
         <v>2</v>
@@ -3410,7 +3412,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B80" s="5">
         <v>5010</v>
@@ -3422,7 +3424,7 @@
         <v>20</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F80" s="5">
         <v>5020</v>
@@ -3434,7 +3436,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B81" s="5">
         <v>5011</v>
@@ -3443,10 +3445,10 @@
         <v>18</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F81" s="5">
         <v>5012</v>
@@ -3458,7 +3460,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B82" s="5">
         <v>5012</v>
@@ -3467,10 +3469,10 @@
         <v>18</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F82" s="5">
         <v>5013</v>
@@ -3485,7 +3487,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B83" s="5">
         <v>5013</v>
@@ -3507,7 +3509,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B84" s="5">
         <v>5014</v>
@@ -3516,10 +3518,10 @@
         <v>18</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F84" s="5">
         <v>5015</v>
@@ -3531,7 +3533,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B85" s="5">
         <v>5015</v>
@@ -3540,10 +3542,10 @@
         <v>18</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F85" s="5">
         <v>5016</v>
@@ -3555,7 +3557,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B86" s="5">
         <v>5016</v>
@@ -3564,10 +3566,10 @@
         <v>18</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F86" s="5">
         <v>5017</v>
@@ -3580,12 +3582,12 @@
         <v>200</v>
       </c>
       <c r="O86" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B87" s="5">
         <v>5017</v>
@@ -3607,7 +3609,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B88" s="5">
         <v>5018</v>
@@ -3616,10 +3618,10 @@
         <v>18</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F88" s="5">
         <v>5019</v>
@@ -3632,12 +3634,12 @@
         <v>30</v>
       </c>
       <c r="O88" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B89" s="5">
         <v>5019</v>
@@ -3659,7 +3661,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B90" s="5">
         <v>5020</v>
@@ -3668,10 +3670,10 @@
         <v>18</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F90" s="5">
         <v>5021</v>
@@ -3686,7 +3688,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B91" s="5">
         <v>5021</v>
@@ -3720,7 +3722,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B93" s="5">
         <v>6001</v>
@@ -3729,10 +3731,10 @@
         <v>14</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F93" s="5">
         <v>6002</v>
@@ -3744,7 +3746,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94" s="5">
         <v>6002</v>
@@ -3753,10 +3755,10 @@
         <v>14</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F94" s="5">
         <v>6003</v>
@@ -3768,7 +3770,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95" s="5">
         <v>6003</v>
@@ -3777,10 +3779,10 @@
         <v>14</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F95" s="5">
         <v>6004</v>
@@ -3804,7 +3806,7 @@
         <v>20</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F96" s="5">
         <v>6005</v>
@@ -3815,7 +3817,7 @@
         <v>3</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L96" s="1">
         <v>3</v>
@@ -3835,7 +3837,7 @@
         <v>20</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F97" s="5">
         <v>6008</v>
@@ -3846,7 +3848,7 @@
         <v>3</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L97" s="1">
         <v>2</v>
@@ -3866,7 +3868,7 @@
         <v>20</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F98" s="5">
         <v>6010</v>
@@ -3877,7 +3879,7 @@
         <v>3</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L98" s="1">
         <v>4</v>
@@ -3897,7 +3899,7 @@
         <v>20</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F99" s="5">
         <v>6011</v>
@@ -3908,7 +3910,7 @@
         <v>3</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L99" s="1">
         <v>1</v>
@@ -3916,7 +3918,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B100" s="5">
         <v>6005</v>
@@ -3925,10 +3927,10 @@
         <v>14</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F100" s="5">
         <v>6006</v>
@@ -3940,7 +3942,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B101" s="5">
         <v>6006</v>
@@ -3949,10 +3951,10 @@
         <v>14</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F101" s="5">
         <v>6007</v>
@@ -3964,7 +3966,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B102" s="5">
         <v>6007</v>
@@ -3973,10 +3975,10 @@
         <v>14</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F102" s="5">
         <v>6012</v>
@@ -3991,7 +3993,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B103" s="5">
         <v>6008</v>
@@ -4000,10 +4002,10 @@
         <v>14</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F103" s="5">
         <v>6009</v>
@@ -4015,7 +4017,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B104" s="5">
         <v>6009</v>
@@ -4024,10 +4026,10 @@
         <v>14</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F104" s="5">
         <v>6012</v>
@@ -4042,7 +4044,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B105" s="5">
         <v>6010</v>
@@ -4051,10 +4053,10 @@
         <v>14</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F105" s="5">
         <v>6012</v>
@@ -4067,12 +4069,12 @@
         <v>200</v>
       </c>
       <c r="O105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B106" s="5">
         <v>6011</v>
@@ -4081,10 +4083,10 @@
         <v>14</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F106" s="5">
         <v>6012</v>
@@ -4097,12 +4099,12 @@
         <v>300</v>
       </c>
       <c r="O106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B107" s="5">
         <v>6012</v>
@@ -4136,7 +4138,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B109" s="5">
         <v>7001</v>
@@ -4145,10 +4147,10 @@
         <v>13</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F109" s="5">
         <v>7002</v>
@@ -4160,7 +4162,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B110" s="5">
         <v>7002</v>
@@ -4169,10 +4171,10 @@
         <v>13</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F110" s="5">
         <v>7003</v>
@@ -4184,7 +4186,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B111" s="5">
         <v>7003</v>
@@ -4193,10 +4195,10 @@
         <v>13</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F111" s="5">
         <v>7004</v>
@@ -4220,7 +4222,7 @@
         <v>20</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F112" s="5">
         <v>7005</v>
@@ -4231,7 +4233,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L112" s="1">
         <v>2</v>
@@ -4251,7 +4253,7 @@
         <v>20</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F113" s="5">
         <v>7006</v>
@@ -4262,7 +4264,7 @@
         <v>3</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L113" s="1">
         <v>4</v>
@@ -4282,7 +4284,7 @@
         <v>20</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F114" s="5">
         <v>7008</v>
@@ -4293,7 +4295,7 @@
         <v>3</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L114" s="1">
         <v>1</v>
@@ -4313,7 +4315,7 @@
         <v>20</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F115" s="5">
         <v>7009</v>
@@ -4324,7 +4326,7 @@
         <v>3</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L115" s="1">
         <v>3</v>
@@ -4332,7 +4334,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B116" s="5">
         <v>7005</v>
@@ -4341,10 +4343,10 @@
         <v>13</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F116" s="5">
         <v>7010</v>
@@ -4359,7 +4361,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B117" s="5">
         <v>7006</v>
@@ -4368,10 +4370,10 @@
         <v>13</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F117" s="5">
         <v>7007</v>
@@ -4383,7 +4385,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B118" s="5">
         <v>7007</v>
@@ -4392,10 +4394,10 @@
         <v>13</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F118" s="5">
         <v>7010</v>
@@ -4408,12 +4410,12 @@
         <v>200</v>
       </c>
       <c r="O118" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B119" s="5">
         <v>7008</v>
@@ -4422,10 +4424,10 @@
         <v>13</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F119" s="5">
         <v>7010</v>
@@ -4438,12 +4440,12 @@
         <v>300</v>
       </c>
       <c r="O119" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B120" s="5">
         <v>7009</v>
@@ -4452,10 +4454,10 @@
         <v>13</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F120" s="5">
         <v>7010</v>
@@ -4470,7 +4472,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B121" s="5">
         <v>7010</v>
@@ -4504,7 +4506,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B123" s="5">
         <v>8001</v>
@@ -4513,10 +4515,10 @@
         <v>14</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F123" s="5">
         <v>8002</v>
@@ -4528,7 +4530,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B124" s="5">
         <v>8002</v>
@@ -4537,10 +4539,10 @@
         <v>14</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F124" s="5">
         <v>8003</v>
@@ -4552,7 +4554,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B125" s="5">
         <v>8003</v>
@@ -4561,10 +4563,10 @@
         <v>14</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F125" s="5">
         <v>8004</v>
@@ -4588,7 +4590,7 @@
         <v>20</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F126" s="5">
         <v>8005</v>
@@ -4599,7 +4601,7 @@
         <v>3</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L126" s="1">
         <v>3</v>
@@ -4619,7 +4621,7 @@
         <v>20</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F127" s="5">
         <v>8008</v>
@@ -4630,7 +4632,7 @@
         <v>3</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L127" s="1">
         <v>2</v>
@@ -4650,7 +4652,7 @@
         <v>20</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F128" s="5">
         <v>8010</v>
@@ -4661,7 +4663,7 @@
         <v>3</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L128" s="1">
         <v>4</v>
@@ -4681,7 +4683,7 @@
         <v>20</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F129" s="5">
         <v>8011</v>
@@ -4692,7 +4694,7 @@
         <v>3</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L129" s="1">
         <v>1</v>
@@ -4700,7 +4702,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B130" s="5">
         <v>8005</v>
@@ -4709,10 +4711,10 @@
         <v>14</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F130" s="5">
         <v>8006</v>
@@ -4724,7 +4726,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B131" s="5">
         <v>8006</v>
@@ -4733,10 +4735,10 @@
         <v>14</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F131" s="5">
         <v>8007</v>
@@ -4748,7 +4750,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B132" s="5">
         <v>8007</v>
@@ -4757,10 +4759,10 @@
         <v>14</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F132" s="5">
         <v>8012</v>
@@ -4775,7 +4777,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B133" s="5">
         <v>8008</v>
@@ -4784,10 +4786,10 @@
         <v>14</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F133" s="5">
         <v>8009</v>
@@ -4799,7 +4801,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B134" s="5">
         <v>8009</v>
@@ -4808,10 +4810,10 @@
         <v>14</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F134" s="5">
         <v>8012</v>
@@ -4826,7 +4828,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B135" s="5">
         <v>8010</v>
@@ -4835,10 +4837,10 @@
         <v>14</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F135" s="5">
         <v>8012</v>
@@ -4851,12 +4853,12 @@
         <v>50</v>
       </c>
       <c r="O135" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B136" s="5">
         <v>8011</v>
@@ -4865,10 +4867,10 @@
         <v>14</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F136" s="5">
         <v>8012</v>
@@ -4881,12 +4883,12 @@
         <v>190</v>
       </c>
       <c r="O136" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B137" s="5">
         <v>8012</v>
@@ -4920,7 +4922,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B139" s="5">
         <v>9001</v>
@@ -4929,10 +4931,10 @@
         <v>13</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F139" s="5">
         <v>9002</v>
@@ -4944,7 +4946,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B140" s="5">
         <v>9002</v>
@@ -4953,10 +4955,10 @@
         <v>13</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F140" s="5">
         <v>9003</v>
@@ -4968,7 +4970,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B141" s="5">
         <v>9003</v>
@@ -4977,10 +4979,10 @@
         <v>13</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F141" s="5">
         <v>9004</v>
@@ -5004,7 +5006,7 @@
         <v>20</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F142" s="5">
         <v>9005</v>
@@ -5015,7 +5017,7 @@
         <v>3</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L142" s="1">
         <v>2</v>
@@ -5035,7 +5037,7 @@
         <v>20</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F143" s="5">
         <v>9006</v>
@@ -5046,7 +5048,7 @@
         <v>3</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L143" s="1">
         <v>4</v>
@@ -5066,7 +5068,7 @@
         <v>20</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F144" s="5">
         <v>9008</v>
@@ -5077,7 +5079,7 @@
         <v>3</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L144" s="1">
         <v>1</v>
@@ -5097,7 +5099,7 @@
         <v>20</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F145" s="5">
         <v>9009</v>
@@ -5108,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L145" s="1">
         <v>3</v>
@@ -5116,7 +5118,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B146" s="5">
         <v>9005</v>
@@ -5125,10 +5127,10 @@
         <v>13</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F146" s="5">
         <v>9010</v>
@@ -5143,7 +5145,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B147" s="5">
         <v>9006</v>
@@ -5152,10 +5154,10 @@
         <v>13</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F147" s="5">
         <v>9007</v>
@@ -5167,7 +5169,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B148" s="5">
         <v>9007</v>
@@ -5176,10 +5178,10 @@
         <v>13</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F148" s="5">
         <v>9010</v>
@@ -5192,12 +5194,12 @@
         <v>50</v>
       </c>
       <c r="O148" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B149" s="5">
         <v>9008</v>
@@ -5206,10 +5208,10 @@
         <v>13</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F149" s="5">
         <v>9010</v>
@@ -5222,12 +5224,12 @@
         <v>190</v>
       </c>
       <c r="O149" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B150" s="5">
         <v>9009</v>
@@ -5236,10 +5238,10 @@
         <v>13</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F150" s="5">
         <v>9010</v>
@@ -5254,13 +5256,13 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B151" s="5">
         <v>9010</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="7"/>
@@ -5288,19 +5290,19 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B153" s="5">
         <v>10001</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F153" s="5">
         <v>10002</v>
@@ -5324,7 +5326,7 @@
         <v>20</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F154" s="5">
         <v>10003</v>
@@ -5335,7 +5337,7 @@
         <v>3</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L154" s="1">
         <v>1</v>
@@ -5355,7 +5357,7 @@
         <v>20</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F155" s="5">
         <v>10004</v>
@@ -5366,7 +5368,7 @@
         <v>3</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L155" s="1">
         <v>4</v>
@@ -5386,7 +5388,7 @@
         <v>20</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F156" s="5">
         <v>10007</v>
@@ -5397,7 +5399,7 @@
         <v>3</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L156" s="1">
         <v>2</v>
@@ -5405,7 +5407,7 @@
     </row>
     <row r="157" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B157" s="5">
         <v>10002</v>
@@ -5417,7 +5419,7 @@
         <v>20</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F157" s="5">
         <v>10008</v>
@@ -5428,7 +5430,7 @@
         <v>3</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L157" s="1">
         <v>3</v>
@@ -5436,19 +5438,19 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B158" s="5">
         <v>10003</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F158" s="7">
         <v>10009</v>
@@ -5458,24 +5460,24 @@
         <v>190</v>
       </c>
       <c r="O158" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B159" s="5">
         <v>10004</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F159" s="7">
         <v>10005</v>
@@ -5484,19 +5486,19 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B160" s="5">
         <v>10005</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F160" s="7">
         <v>10006</v>
@@ -5505,19 +5507,19 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B161" s="5">
         <v>10006</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F161" s="7">
         <v>10009</v>
@@ -5527,24 +5529,24 @@
         <v>50</v>
       </c>
       <c r="O161" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B162" s="5">
         <v>10007</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F162" s="7">
         <v>10009</v>
@@ -5556,19 +5558,19 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B163" s="5">
         <v>10008</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F163" s="7">
         <v>10009</v>
@@ -5580,7 +5582,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B164" s="5">
         <v>10009</v>
@@ -5602,7 +5604,7 @@
     </row>
     <row r="166" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B166" s="5">
         <v>11001</v>
@@ -5611,10 +5613,10 @@
         <v>18</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F166" s="7">
         <v>11002</v>
@@ -5623,7 +5625,7 @@
     </row>
     <row r="167" spans="1:15" ht="52" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B167" s="5">
         <v>11002</v>
@@ -5635,7 +5637,7 @@
         <v>20</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F167" s="7">
         <v>11003</v>
@@ -5644,7 +5646,7 @@
         <v>3</v>
       </c>
       <c r="K167" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L167" s="1">
         <v>4</v>
@@ -5652,7 +5654,7 @@
     </row>
     <row r="168" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B168" s="5">
         <v>11002</v>
@@ -5664,7 +5666,7 @@
         <v>20</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F168" s="7">
         <v>11005</v>
@@ -5673,7 +5675,7 @@
         <v>3</v>
       </c>
       <c r="K168" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L168" s="1">
         <v>1</v>
@@ -5681,7 +5683,7 @@
     </row>
     <row r="169" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B169" s="5">
         <v>11002</v>
@@ -5693,7 +5695,7 @@
         <v>20</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F169" s="7">
         <v>11003</v>
@@ -5702,7 +5704,7 @@
         <v>3</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L169" s="1">
         <v>4</v>
@@ -5710,7 +5712,7 @@
     </row>
     <row r="170" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B170" s="5">
         <v>11002</v>
@@ -5722,7 +5724,7 @@
         <v>20</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F170" s="7">
         <v>11003</v>
@@ -5731,7 +5733,7 @@
         <v>3</v>
       </c>
       <c r="K170" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L170" s="1">
         <v>4</v>
@@ -5739,7 +5741,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B171" s="5">
         <v>11003</v>
@@ -5748,10 +5750,10 @@
         <v>18</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F171" s="7">
         <v>11004</v>
@@ -5760,7 +5762,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B172" s="5">
         <v>11004</v>
@@ -5769,10 +5771,10 @@
         <v>18</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F172" s="7">
         <v>11005</v>
@@ -5782,12 +5784,12 @@
         <v>30</v>
       </c>
       <c r="O172" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B173" s="5">
         <v>11005</v>
@@ -5806,7 +5808,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B174" s="5">
         <v>11006</v>
@@ -5815,10 +5817,10 @@
         <v>18</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F174" s="7">
         <v>11007</v>
@@ -5827,7 +5829,7 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B175" s="5">
         <v>11007</v>
@@ -5836,10 +5838,10 @@
         <v>18</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F175" s="7">
         <v>11008</v>
@@ -5848,7 +5850,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B176" s="5">
         <v>11008</v>
@@ -5857,10 +5859,10 @@
         <v>18</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F176" s="7">
         <v>11009</v>
@@ -5870,12 +5872,12 @@
         <v>500</v>
       </c>
       <c r="O176" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B177" s="5">
         <v>11009</v>
@@ -5891,7 +5893,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B179" s="5">
         <v>12001</v>
@@ -5900,7 +5902,7 @@
         <v>18</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F179" s="7">
         <v>12002</v>
@@ -5914,7 +5916,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B181" s="5">
         <v>12002</v>
@@ -5923,7 +5925,7 @@
         <v>14</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F181" s="7">
         <v>12003</v>
@@ -5931,7 +5933,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B182" s="5">
         <v>12003</v>
@@ -5940,7 +5942,7 @@
         <v>14</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F182" s="7">
         <v>12004</v>
@@ -5954,7 +5956,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B184" s="5">
         <v>12004</v>
@@ -5963,7 +5965,7 @@
         <v>13</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F184" s="7">
         <v>12005</v>
@@ -5971,7 +5973,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B185" s="5">
         <v>12005</v>
@@ -5980,7 +5982,7 @@
         <v>13</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F185" s="7">
         <v>12006</v>
@@ -5988,7 +5990,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B186" s="5">
         <v>12006</v>
@@ -5997,7 +5999,7 @@
         <v>13</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F186" s="7">
         <v>12007</v>
@@ -6011,16 +6013,16 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B188" s="5">
         <v>12007</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F188" s="7">
         <v>12008</v>
@@ -6028,7 +6030,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B189" s="5">
         <v>12008</v>
@@ -6183,63 +6185,63 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
         <v>132</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>133</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>134</v>
       </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" t="s">
-        <v>136</v>
-      </c>
       <c r="J3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" t="s">
         <v>190</v>
-      </c>
-      <c r="H4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" t="s">
         <v>185</v>
-      </c>
-      <c r="G6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\2026_GGJ\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AFEA76-AC44-4FD0-983F-A9D00265E9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75206D61-5C02-4BD8-99A5-5B95157FE58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,654 +171,656 @@
     <t>冷静面具（平静地告诉他你已经拒绝了策划）</t>
   </si>
   <si>
+    <t>快乐面具（肯定他的能力）</t>
+  </si>
+  <si>
+    <t>悲伤面具（说明他做了无用功）</t>
+  </si>
+  <si>
+    <t>哦，这个我跟策划聊过了，这个不用做，辛苦了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我天！他叫你做你就做！！！你这个人真是满脑子只想着他呢，怎么不用ALT+F4当截图键，，，别做了！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我去！这么厉害！但可惜诶，我们现在应该没什么时间做这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唉，做了就做了吧，反正大概率用不上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我会更专注在现在的工作上的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知道了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了就做了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘给你你来写？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你要的相机图标来力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【图片】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（平静地告诉TA你已经拒绝了策划）</t>
+  </si>
+  <si>
+    <t>快乐面具（肯定TA的能力）</t>
+  </si>
+  <si>
+    <t>悲伤面具（为美术的作品表示惋惜）</t>
+  </si>
+  <si>
+    <t>遗憾，可能是没对齐，这个素材不需要了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我焯！狗策划居然用我的名义叫你干活！！！你接着画你的界面去，我去喷策划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好耶好耶！虽然这次好像用不上了，但可以留下次用诶！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O，原来用不上了，nmsl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竟然是假传圣旨，遗憾离场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【扁扁地走开】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的艺术被赏识了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（满地打滚中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这么好看的图标，居然用不上了，TAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快门：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【一段10s的语音】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（？）</t>
+  </si>
+  <si>
+    <t>愤怒面具（！）</t>
+  </si>
+  <si>
+    <t>快乐面具（^3^）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲伤面具（TT）</t>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^3^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱你，但不用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗憾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难过了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可恶，原来不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也爱你^3^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背着我偷偷跟剩下几个谈需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤立我是吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿嘿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎呀，这是验证可行性，你就做做试试么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我反正是不赞成的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理性分析来看时间太紧张了，但还得看你自己的时间评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没门儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚决不同意，你想都不要想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好吧好吧，你做得其实还不错，就答应你吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但你们要注意时间哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唉，做了就做了吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你自己把握，还是得以核心系统为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我肯定会把握好时间的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而且也不需要调用太多别的资源，很快的，你放心，就做一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是，至于吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做就不做呗，反应那么大干什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真是的，老喜欢压力别人干什么，我不干了！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇！老大你最好了！！！我现在就去搞！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明白的明白的，我就做一点点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（分析局势）</t>
+  </si>
+  <si>
+    <t>愤怒面具（坚决否定）</t>
+  </si>
+  <si>
+    <t>快乐面具（爽快答应）</t>
+  </si>
+  <si>
+    <t>悲伤面具（消极对待）</t>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急急急！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加的照相系统有严重BUG！！！加了以后会和原来一个功能起冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你别着急，先debug一下，再不济就不要这个功能了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以的！！！干巴爹捏！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草…真是一堆事儿，不想管了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我草！！！！！！！！！！！！&amp;*&amp;……%……*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（冷静寻求解法）</t>
+  </si>
+  <si>
+    <t>愤怒面具（对电脑无能狂怒）</t>
+  </si>
+  <si>
+    <t>快乐面具（化身夸夸王，鼓励程序）</t>
+  </si>
+  <si>
+    <t>跳转逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK，我再看看，我写了四五千行的代码可不想丢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启一下居然好了......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别急，急也没用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哟西！冲刺！果然有效！你滴鼓励让我迅速找到了问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你这人能不能有点责任心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画不完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么策划又加新东西了，我以为只用画一个icon的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要不你跟策划商量一下，少画点？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实，我对你是有一些失望的。当初让你做美术，是高于你面试时的水平的。我是希望进来后，你能够拼一把，快速成长起来的。你这个层级，不是把事情做了就可以的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画不完就不画了，一起摆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 愤怒面具（给美术上压力）</t>
+  </si>
+  <si>
+    <t>快乐面具（化身夸夸王，鼓励美术）</t>
+  </si>
+  <si>
+    <t>算惹，不想沟通，我画就是了Orz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你怎么知道我喜欢跟人唱反调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你越压力我我越要干，冲刺冲刺冲！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好恶心，不要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太好了，一起摆烂吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做锤子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做不了捏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做等死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真是冷漠，走了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（不）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 愤怒面具（锤子）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 快乐面具（捏）</t>
+  </si>
+  <si>
+    <t>现在去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[一段锤子敲击的音效]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐等ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟你说了我不想干了，什么GGJ模拟器我也不想做了，策划一天天就是来这干杂活，好不容易有点想法还要被各种否定，不干了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咱们捋一捋啊——说实话，开会你提的那些框架，最后落地效果都好得出奇。很多我们觉得会卡壳的地方，你早就在方案里埋好解了。你要是走了，后面这摊子真没人能接得住。你还是很重要的，只不过这个需求如果加了真的有可能赶不上进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱干干，不干就滚！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你提那个需求我真仔细琢磨了，我觉得真行，就是我们这次时间实在是太紧张了，要不我肯定就塞了，这样吧，明天奶茶我请，这个系统我们下次一定做。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕子呜呜呜呜~不是我不想做你的需求，是真的没有时间啊呜呜呜呜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静面具（理性分析）</t>
+  </si>
+  <si>
+    <t>愤怒面具（开始攻击）</t>
+  </si>
+  <si>
+    <t>快乐面具（鼓励安抚）</t>
+  </si>
+  <si>
+    <t>悲伤面具（以泪洗面）</t>
+  </si>
+  <si>
+    <t>唉，，，你都这么说了，那还说啥了，这次就不做这个了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以大橘为重.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚就滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁稀罕跟你组一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果5013或5021触发，则跳转——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果5017触发，则跳转——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果5019触发，则跳转——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞定了！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总算弄完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真不容易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一张！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画完了！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totaltime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小策听后十分难过，开发花费时间增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小策听后大受鼓舞，开发花费时间减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程听后十分难过，开发花费时间增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程听后大受鼓舞，开发花费时间减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小美听后十分难过，开发花费时间增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小美听后大受鼓舞，开发花费时间减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小音听后十分难过，开发花费时间增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小音听后大受鼓舞，开发花费时间减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒面具（生气地质疑他的想法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐面具（给他画饼，叫他下次再做）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>愤怒面具（强烈批判程序）</t>
-  </si>
-  <si>
-    <t>快乐面具（肯定他的能力）</t>
-  </si>
-  <si>
-    <t>悲伤面具（说明他做了无用功）</t>
-  </si>
-  <si>
-    <t>哦，这个我跟策划聊过了，这个不用做，辛苦了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我天！他叫你做你就做！！！你这个人真是满脑子只想着他呢，怎么不用ALT+F4当截图键，，，别做了！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我去！这么厉害！但可惜诶，我们现在应该没什么时间做这个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唉，做了就做了吧，反正大概率用不上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我会更专注在现在的工作上的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知道了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做了就做了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>键盘给你你来写？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你要的相机图标来力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【图片】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷静面具（平静地告诉TA你已经拒绝了策划）</t>
-  </si>
-  <si>
-    <t>（怒喷策划，叫美术去接着画界面去）</t>
-  </si>
-  <si>
-    <t>快乐面具（肯定TA的能力）</t>
-  </si>
-  <si>
-    <t>悲伤面具（为美术的作品表示惋惜）</t>
-  </si>
-  <si>
-    <t>遗憾，可能是没对齐，这个素材不需要了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我焯！狗策划居然用我的名义叫你干活！！！你接着画你的界面去，我去喷策划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好耶好耶！虽然这次好像用不上了，但可以留下次用诶！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O，原来用不上了，nmsl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竟然是假传圣旨，遗憾离场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【扁扁地走开】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的艺术被赏识了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（满地打滚中）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这么好看的图标，居然用不上了，TAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快门：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【一段10s的语音】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷静面具（？）</t>
-  </si>
-  <si>
-    <t>愤怒面具（！）</t>
-  </si>
-  <si>
-    <t>快乐面具（^3^）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悲伤面具（TT）</t>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^3^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱你，但不用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗憾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难过了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可恶，原来不做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我也爱你^3^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么意思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背着我偷偷跟剩下几个谈需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孤立我是吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘿嘿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哎呀，这是验证可行性，你就做做试试么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我反正是不赞成的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理性分析来看时间太紧张了，但还得看你自己的时间评估</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没门儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚决不同意，你想都不要想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好吧好吧，你做得其实还不错，就答应你吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但你们要注意时间哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唉，做了就做了吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你自己把握，还是得以核心系统为主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我肯定会把握好时间的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而且也不需要调用太多别的资源，很快的，你放心，就做一点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是，至于吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不做就不做呗，反应那么大干什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真是的，老喜欢压力别人干什么，我不干了！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哇！老大你最好了！！！我现在就去搞！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明白的明白的，我就做一点点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷静面具（分析局势）</t>
-  </si>
-  <si>
-    <t>愤怒面具（坚决否定）</t>
-  </si>
-  <si>
-    <t>快乐面具（爽快答应）</t>
-  </si>
-  <si>
-    <t>悲伤面具（消极对待）</t>
-  </si>
-  <si>
-    <t>！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急急急！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新加的照相系统有严重BUG！！！加了以后会和原来一个功能起冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你别着急，先debug一下，再不济就不要这个功能了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你可以的！！！干巴爹捏！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草…真是一堆事儿，不想管了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我草！！！！！！！！！！！！&amp;*&amp;……%……*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷静面具（冷静寻求解法）</t>
-  </si>
-  <si>
-    <t>愤怒面具（对电脑无能狂怒）</t>
-  </si>
-  <si>
-    <t>快乐面具（化身夸夸王，鼓励程序）</t>
-  </si>
-  <si>
-    <t>跳转逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK，我再看看，我写了四五千行的代码可不想丢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重启一下居然好了......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别急，急也没用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哟西！冲刺！果然有效！你滴鼓励让我迅速找到了问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你这人能不能有点责任心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画不完了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QAQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么策划又加新东西了，我以为只用画一个icon的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要不你跟策划商量一下，少画点？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其实，我对你是有一些失望的。当初让你做美术，是高于你面试时的水平的。我是希望进来后，你能够拼一把，快速成长起来的。你这个层级，不是把事情做了就可以的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画不完就不画了，一起摆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 愤怒面具（给美术上压力）</t>
-  </si>
-  <si>
-    <t>快乐面具（化身夸夸王，鼓励美术）</t>
-  </si>
-  <si>
-    <t>算惹，不想沟通，我画就是了Orz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你怎么知道我喜欢跟人唱反调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你越压力我我越要干，冲刺冲刺冲！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好恶心，不要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太好了，一起摆烂吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做锤子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做不了捏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做等死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真是冷漠，走了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷静面具（不）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 愤怒面具（锤子）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 快乐面具（捏）</t>
-  </si>
-  <si>
-    <t>现在去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[一段锤子敲击的音效]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐等ing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟你说了我不想干了，什么GGJ模拟器我也不想做了，策划一天天就是来这干杂活，好不容易有点想法还要被各种否定，不干了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咱们捋一捋啊——说实话，开会你提的那些框架，最后落地效果都好得出奇。很多我们觉得会卡壳的地方，你早就在方案里埋好解了。你要是走了，后面这摊子真没人能接得住。你还是很重要的，只不过这个需求如果加了真的有可能赶不上进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱干干，不干就滚！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你提那个需求我真仔细琢磨了，我觉得真行，就是我们这次时间实在是太紧张了，要不我肯定就塞了，这样吧，明天奶茶我请，这个系统我们下次一定做。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕子呜呜呜呜~不是我不想做你的需求，是真的没有时间啊呜呜呜呜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷静面具（理性分析）</t>
-  </si>
-  <si>
-    <t>愤怒面具（开始攻击）</t>
-  </si>
-  <si>
-    <t>快乐面具（鼓励安抚）</t>
-  </si>
-  <si>
-    <t>悲伤面具（以泪洗面）</t>
-  </si>
-  <si>
-    <t>唉，，，你都这么说了，那还说啥了，这次就不做这个了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以大橘为重.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚就滚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谁稀罕跟你组一样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果5013或5021触发，则跳转——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果5017触发，则跳转——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果5019触发，则跳转——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搞定了！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总算弄完了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真不容易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一张！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画完了！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totaltime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小策听后十分难过，开发花费时间增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小策听后大受鼓舞，开发花费时间减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小程听后十分难过，开发花费时间增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小程听后大受鼓舞，开发花费时间减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小美听后十分难过，开发花费时间增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小美听后大受鼓舞，开发花费时间减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小音听后十分难过，开发花费时间增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小音听后大受鼓舞，开发花费时间减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>愤怒面具（生气地质疑他的想法）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐面具（给他画饼，叫他下次再做）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒面具（怒喷策划，叫美术去接着画界面去）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1317,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1377,13 +1379,13 @@
         <v>38</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1515,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1545,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L7" s="1">
         <v>4</v>
@@ -1755,7 +1757,7 @@
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1809,7 +1811,7 @@
         <v>35</v>
       </c>
       <c r="O17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1884,7 +1886,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="5">
         <v>2003</v>
@@ -1915,7 +1917,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="5">
         <v>2005</v>
@@ -1926,7 +1928,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="L22" s="1">
         <v>2</v>
@@ -1946,7 +1948,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="5">
         <v>2007</v>
@@ -1957,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L23" s="1">
         <v>3</v>
@@ -1977,7 +1979,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" s="5">
         <v>2010</v>
@@ -1988,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L24" s="1">
         <v>1</v>
@@ -2008,7 +2010,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="5">
         <v>2004</v>
@@ -2032,7 +2034,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" s="5">
         <v>2012</v>
@@ -2045,7 +2047,7 @@
         <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2062,7 +2064,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" s="5">
         <v>2006</v>
@@ -2086,7 +2088,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7">
         <v>2012</v>
@@ -2113,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="7">
         <v>2008</v>
@@ -2137,7 +2139,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="7">
         <v>2009</v>
@@ -2161,7 +2163,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="7">
         <v>2012</v>
@@ -2188,7 +2190,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" s="7">
         <v>2011</v>
@@ -2212,7 +2214,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="5">
         <v>2012</v>
@@ -2225,7 +2227,7 @@
         <v>120</v>
       </c>
       <c r="O33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2276,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36" s="5">
         <v>3002</v>
@@ -2300,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F37" s="5">
         <v>3003</v>
@@ -2324,7 +2326,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F38" s="5">
         <v>3004</v>
@@ -2335,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L38" s="1">
         <v>2</v>
@@ -2355,7 +2357,7 @@
         <v>20</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F39" s="5">
         <v>3005</v>
@@ -2366,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="L39" s="1">
         <v>3</v>
@@ -2386,7 +2388,7 @@
         <v>20</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F40" s="5">
         <v>3006</v>
@@ -2397,7 +2399,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L40" s="1">
         <v>1</v>
@@ -2417,7 +2419,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F41" s="5">
         <v>3008</v>
@@ -2428,7 +2430,7 @@
         <v>3</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L41" s="1">
         <v>4</v>
@@ -2448,7 +2450,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F42" s="5">
         <v>3010</v>
@@ -2475,7 +2477,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F43" s="5">
         <v>3010</v>
@@ -2502,7 +2504,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F44" s="5">
         <v>3007</v>
@@ -2526,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F45" s="5">
         <v>3010</v>
@@ -2539,7 +2541,7 @@
         <v>120</v>
       </c>
       <c r="O45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2556,7 +2558,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F46" s="5">
         <v>3009</v>
@@ -2580,7 +2582,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F47" s="5">
         <v>3010</v>
@@ -2593,7 +2595,7 @@
         <v>25</v>
       </c>
       <c r="O47" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2604,7 +2606,7 @@
         <v>3010</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2638,13 +2640,13 @@
         <v>4001</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F50" s="5">
         <v>4002</v>
@@ -2662,13 +2664,13 @@
         <v>4002</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="F51" s="5">
         <v>4003</v>
@@ -2692,7 +2694,7 @@
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F52" s="5">
         <v>4004</v>
@@ -2703,7 +2705,7 @@
         <v>3</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
@@ -2723,7 +2725,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F53" s="5">
         <v>4008</v>
@@ -2747,7 +2749,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F54" s="5">
         <v>4005</v>
@@ -2758,7 +2760,7 @@
         <v>3</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L54" s="1">
         <v>2</v>
@@ -2778,7 +2780,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F55" s="5">
         <v>4010</v>
@@ -2802,7 +2804,7 @@
         <v>20</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F56" s="5">
         <v>4006</v>
@@ -2813,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L56" s="1">
         <v>4</v>
@@ -2833,7 +2835,7 @@
         <v>20</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F57" s="5">
         <v>4012</v>
@@ -2857,7 +2859,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F58" s="5">
         <v>4007</v>
@@ -2868,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L58" s="1">
         <v>3</v>
@@ -2888,7 +2890,7 @@
         <v>20</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F59" s="5">
         <v>4013</v>
@@ -2906,13 +2908,13 @@
         <v>4008</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F60" s="5">
         <v>4009</v>
@@ -2930,13 +2932,13 @@
         <v>4009</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F61" s="5">
         <v>4014</v>
@@ -2949,7 +2951,7 @@
         <v>120</v>
       </c>
       <c r="O61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -2960,13 +2962,13 @@
         <v>4010</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F62" s="5">
         <v>4011</v>
@@ -2984,13 +2986,13 @@
         <v>4011</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F63" s="5">
         <v>4014</v>
@@ -3011,13 +3013,13 @@
         <v>4012</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F64" s="5">
         <v>4014</v>
@@ -3030,7 +3032,7 @@
         <v>25</v>
       </c>
       <c r="O64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3041,13 +3043,13 @@
         <v>4013</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F65" s="5">
         <v>4014</v>
@@ -3096,7 +3098,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B68" s="5">
         <v>5001</v>
@@ -3105,10 +3107,10 @@
         <v>18</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F68" s="5">
         <v>5002</v>
@@ -3120,7 +3122,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B69" s="5">
         <v>5002</v>
@@ -3132,7 +3134,7 @@
         <v>20</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" s="5">
         <v>5003</v>
@@ -3144,7 +3146,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B70" s="5">
         <v>5003</v>
@@ -3156,7 +3158,7 @@
         <v>20</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F70" s="5">
         <v>5004</v>
@@ -3168,7 +3170,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B71" s="5">
         <v>5004</v>
@@ -3180,7 +3182,7 @@
         <v>20</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F71" s="5">
         <v>5005</v>
@@ -3192,7 +3194,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B72" s="5">
         <v>5005</v>
@@ -3201,10 +3203,10 @@
         <v>18</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F72" s="5">
         <v>5006</v>
@@ -3228,7 +3230,7 @@
         <v>20</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" s="5">
         <v>5007</v>
@@ -3239,7 +3241,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L73" s="1">
         <v>3</v>
@@ -3247,7 +3249,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B74" s="5">
         <v>5007</v>
@@ -3259,7 +3261,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="5">
         <v>5011</v>
@@ -3283,7 +3285,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F75" s="5">
         <v>5008</v>
@@ -3294,7 +3296,7 @@
         <v>3</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L75" s="1">
         <v>1</v>
@@ -3302,7 +3304,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B76" s="5">
         <v>5008</v>
@@ -3314,7 +3316,7 @@
         <v>20</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F76" s="5">
         <v>5014</v>
@@ -3338,7 +3340,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F77" s="5">
         <v>5009</v>
@@ -3349,7 +3351,7 @@
         <v>3</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L77" s="1">
         <v>4</v>
@@ -3357,7 +3359,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B78" s="5">
         <v>5009</v>
@@ -3369,7 +3371,7 @@
         <v>20</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F78" s="5">
         <v>5018</v>
@@ -3393,7 +3395,7 @@
         <v>20</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F79" s="5">
         <v>5010</v>
@@ -3404,7 +3406,7 @@
         <v>3</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L79" s="1">
         <v>2</v>
@@ -3412,7 +3414,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B80" s="5">
         <v>5010</v>
@@ -3424,7 +3426,7 @@
         <v>20</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F80" s="5">
         <v>5020</v>
@@ -3436,7 +3438,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B81" s="5">
         <v>5011</v>
@@ -3445,10 +3447,10 @@
         <v>18</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F81" s="5">
         <v>5012</v>
@@ -3460,7 +3462,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B82" s="5">
         <v>5012</v>
@@ -3469,10 +3471,10 @@
         <v>18</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F82" s="5">
         <v>5013</v>
@@ -3509,7 +3511,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" s="5">
         <v>5014</v>
@@ -3518,10 +3520,10 @@
         <v>18</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F84" s="5">
         <v>5015</v>
@@ -3533,7 +3535,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B85" s="5">
         <v>5015</v>
@@ -3542,10 +3544,10 @@
         <v>18</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F85" s="5">
         <v>5016</v>
@@ -3557,7 +3559,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B86" s="5">
         <v>5016</v>
@@ -3566,10 +3568,10 @@
         <v>18</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F86" s="5">
         <v>5017</v>
@@ -3582,7 +3584,7 @@
         <v>200</v>
       </c>
       <c r="O86" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -3609,7 +3611,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B88" s="5">
         <v>5018</v>
@@ -3618,10 +3620,10 @@
         <v>18</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F88" s="5">
         <v>5019</v>
@@ -3634,7 +3636,7 @@
         <v>30</v>
       </c>
       <c r="O88" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -3661,7 +3663,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B90" s="5">
         <v>5020</v>
@@ -3670,10 +3672,10 @@
         <v>18</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F90" s="5">
         <v>5021</v>
@@ -3722,7 +3724,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93" s="5">
         <v>6001</v>
@@ -3731,10 +3733,10 @@
         <v>14</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F93" s="5">
         <v>6002</v>
@@ -3746,7 +3748,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94" s="5">
         <v>6002</v>
@@ -3755,10 +3757,10 @@
         <v>14</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F94" s="5">
         <v>6003</v>
@@ -3770,7 +3772,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B95" s="5">
         <v>6003</v>
@@ -3779,10 +3781,10 @@
         <v>14</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F95" s="5">
         <v>6004</v>
@@ -3806,7 +3808,7 @@
         <v>20</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F96" s="5">
         <v>6005</v>
@@ -3817,7 +3819,7 @@
         <v>3</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L96" s="1">
         <v>3</v>
@@ -3837,7 +3839,7 @@
         <v>20</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F97" s="5">
         <v>6008</v>
@@ -3848,7 +3850,7 @@
         <v>3</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L97" s="1">
         <v>2</v>
@@ -3868,7 +3870,7 @@
         <v>20</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F98" s="5">
         <v>6010</v>
@@ -3879,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L98" s="1">
         <v>4</v>
@@ -3899,7 +3901,7 @@
         <v>20</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F99" s="5">
         <v>6011</v>
@@ -3910,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L99" s="1">
         <v>1</v>
@@ -3918,7 +3920,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B100" s="5">
         <v>6005</v>
@@ -3927,10 +3929,10 @@
         <v>14</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F100" s="5">
         <v>6006</v>
@@ -3942,7 +3944,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B101" s="5">
         <v>6006</v>
@@ -3951,10 +3953,10 @@
         <v>14</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F101" s="5">
         <v>6007</v>
@@ -3966,7 +3968,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B102" s="5">
         <v>6007</v>
@@ -3975,10 +3977,10 @@
         <v>14</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F102" s="5">
         <v>6012</v>
@@ -3993,7 +3995,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B103" s="5">
         <v>6008</v>
@@ -4002,10 +4004,10 @@
         <v>14</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F103" s="5">
         <v>6009</v>
@@ -4017,7 +4019,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B104" s="5">
         <v>6009</v>
@@ -4026,10 +4028,10 @@
         <v>14</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F104" s="5">
         <v>6012</v>
@@ -4044,7 +4046,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B105" s="5">
         <v>6010</v>
@@ -4053,10 +4055,10 @@
         <v>14</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F105" s="5">
         <v>6012</v>
@@ -4069,12 +4071,12 @@
         <v>200</v>
       </c>
       <c r="O105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B106" s="5">
         <v>6011</v>
@@ -4083,10 +4085,10 @@
         <v>14</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F106" s="5">
         <v>6012</v>
@@ -4099,7 +4101,7 @@
         <v>300</v>
       </c>
       <c r="O106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -4138,7 +4140,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B109" s="5">
         <v>7001</v>
@@ -4147,10 +4149,10 @@
         <v>13</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F109" s="5">
         <v>7002</v>
@@ -4162,7 +4164,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B110" s="5">
         <v>7002</v>
@@ -4171,10 +4173,10 @@
         <v>13</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F110" s="5">
         <v>7003</v>
@@ -4186,7 +4188,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B111" s="5">
         <v>7003</v>
@@ -4195,10 +4197,10 @@
         <v>13</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F111" s="5">
         <v>7004</v>
@@ -4222,7 +4224,7 @@
         <v>20</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F112" s="5">
         <v>7005</v>
@@ -4233,7 +4235,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L112" s="1">
         <v>2</v>
@@ -4253,7 +4255,7 @@
         <v>20</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F113" s="5">
         <v>7006</v>
@@ -4264,7 +4266,7 @@
         <v>3</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L113" s="1">
         <v>4</v>
@@ -4284,7 +4286,7 @@
         <v>20</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F114" s="5">
         <v>7008</v>
@@ -4295,7 +4297,7 @@
         <v>3</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L114" s="1">
         <v>1</v>
@@ -4315,7 +4317,7 @@
         <v>20</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F115" s="5">
         <v>7009</v>
@@ -4326,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L115" s="1">
         <v>3</v>
@@ -4334,7 +4336,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B116" s="5">
         <v>7005</v>
@@ -4343,10 +4345,10 @@
         <v>13</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F116" s="5">
         <v>7010</v>
@@ -4361,7 +4363,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B117" s="5">
         <v>7006</v>
@@ -4370,10 +4372,10 @@
         <v>13</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F117" s="5">
         <v>7007</v>
@@ -4385,7 +4387,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B118" s="5">
         <v>7007</v>
@@ -4394,10 +4396,10 @@
         <v>13</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F118" s="5">
         <v>7010</v>
@@ -4410,12 +4412,12 @@
         <v>200</v>
       </c>
       <c r="O118" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B119" s="5">
         <v>7008</v>
@@ -4424,10 +4426,10 @@
         <v>13</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F119" s="5">
         <v>7010</v>
@@ -4440,12 +4442,12 @@
         <v>300</v>
       </c>
       <c r="O119" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B120" s="5">
         <v>7009</v>
@@ -4454,10 +4456,10 @@
         <v>13</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F120" s="5">
         <v>7010</v>
@@ -4506,7 +4508,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B123" s="5">
         <v>8001</v>
@@ -4515,10 +4517,10 @@
         <v>14</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F123" s="5">
         <v>8002</v>
@@ -4530,7 +4532,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B124" s="5">
         <v>8002</v>
@@ -4539,10 +4541,10 @@
         <v>14</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F124" s="5">
         <v>8003</v>
@@ -4554,7 +4556,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B125" s="5">
         <v>8003</v>
@@ -4563,10 +4565,10 @@
         <v>14</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F125" s="5">
         <v>8004</v>
@@ -4590,7 +4592,7 @@
         <v>20</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F126" s="5">
         <v>8005</v>
@@ -4601,7 +4603,7 @@
         <v>3</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L126" s="1">
         <v>3</v>
@@ -4621,7 +4623,7 @@
         <v>20</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F127" s="5">
         <v>8008</v>
@@ -4632,7 +4634,7 @@
         <v>3</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L127" s="1">
         <v>2</v>
@@ -4652,7 +4654,7 @@
         <v>20</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F128" s="5">
         <v>8010</v>
@@ -4663,7 +4665,7 @@
         <v>3</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L128" s="1">
         <v>4</v>
@@ -4683,7 +4685,7 @@
         <v>20</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F129" s="5">
         <v>8011</v>
@@ -4694,7 +4696,7 @@
         <v>3</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L129" s="1">
         <v>1</v>
@@ -4702,7 +4704,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B130" s="5">
         <v>8005</v>
@@ -4711,10 +4713,10 @@
         <v>14</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F130" s="5">
         <v>8006</v>
@@ -4726,7 +4728,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B131" s="5">
         <v>8006</v>
@@ -4735,10 +4737,10 @@
         <v>14</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F131" s="5">
         <v>8007</v>
@@ -4750,7 +4752,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B132" s="5">
         <v>8007</v>
@@ -4759,10 +4761,10 @@
         <v>14</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F132" s="5">
         <v>8012</v>
@@ -4777,7 +4779,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B133" s="5">
         <v>8008</v>
@@ -4786,10 +4788,10 @@
         <v>14</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F133" s="5">
         <v>8009</v>
@@ -4801,7 +4803,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B134" s="5">
         <v>8009</v>
@@ -4810,10 +4812,10 @@
         <v>14</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F134" s="5">
         <v>8012</v>
@@ -4828,7 +4830,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B135" s="5">
         <v>8010</v>
@@ -4837,10 +4839,10 @@
         <v>14</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F135" s="5">
         <v>8012</v>
@@ -4853,12 +4855,12 @@
         <v>50</v>
       </c>
       <c r="O135" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B136" s="5">
         <v>8011</v>
@@ -4867,10 +4869,10 @@
         <v>14</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F136" s="5">
         <v>8012</v>
@@ -4883,7 +4885,7 @@
         <v>190</v>
       </c>
       <c r="O136" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
@@ -4922,7 +4924,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B139" s="5">
         <v>9001</v>
@@ -4931,10 +4933,10 @@
         <v>13</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F139" s="5">
         <v>9002</v>
@@ -4946,7 +4948,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B140" s="5">
         <v>9002</v>
@@ -4955,10 +4957,10 @@
         <v>13</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F140" s="5">
         <v>9003</v>
@@ -4970,7 +4972,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B141" s="5">
         <v>9003</v>
@@ -4979,10 +4981,10 @@
         <v>13</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F141" s="5">
         <v>9004</v>
@@ -5006,7 +5008,7 @@
         <v>20</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F142" s="5">
         <v>9005</v>
@@ -5017,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L142" s="1">
         <v>2</v>
@@ -5037,7 +5039,7 @@
         <v>20</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F143" s="5">
         <v>9006</v>
@@ -5048,7 +5050,7 @@
         <v>3</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L143" s="1">
         <v>4</v>
@@ -5068,7 +5070,7 @@
         <v>20</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F144" s="5">
         <v>9008</v>
@@ -5079,7 +5081,7 @@
         <v>3</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L144" s="1">
         <v>1</v>
@@ -5099,7 +5101,7 @@
         <v>20</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F145" s="5">
         <v>9009</v>
@@ -5110,7 +5112,7 @@
         <v>3</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L145" s="1">
         <v>3</v>
@@ -5118,7 +5120,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B146" s="5">
         <v>9005</v>
@@ -5127,10 +5129,10 @@
         <v>13</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F146" s="5">
         <v>9010</v>
@@ -5145,7 +5147,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B147" s="5">
         <v>9006</v>
@@ -5154,10 +5156,10 @@
         <v>13</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F147" s="5">
         <v>9007</v>
@@ -5169,7 +5171,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B148" s="5">
         <v>9007</v>
@@ -5178,10 +5180,10 @@
         <v>13</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F148" s="5">
         <v>9010</v>
@@ -5194,12 +5196,12 @@
         <v>50</v>
       </c>
       <c r="O148" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B149" s="5">
         <v>9008</v>
@@ -5208,10 +5210,10 @@
         <v>13</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F149" s="5">
         <v>9010</v>
@@ -5224,12 +5226,12 @@
         <v>190</v>
       </c>
       <c r="O149" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B150" s="5">
         <v>9009</v>
@@ -5238,10 +5240,10 @@
         <v>13</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F150" s="5">
         <v>9010</v>
@@ -5262,7 +5264,7 @@
         <v>9010</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="7"/>
@@ -5290,19 +5292,19 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B153" s="5">
         <v>10001</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F153" s="5">
         <v>10002</v>
@@ -5326,7 +5328,7 @@
         <v>20</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F154" s="5">
         <v>10003</v>
@@ -5337,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L154" s="1">
         <v>1</v>
@@ -5357,7 +5359,7 @@
         <v>20</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F155" s="5">
         <v>10004</v>
@@ -5368,7 +5370,7 @@
         <v>3</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L155" s="1">
         <v>4</v>
@@ -5388,7 +5390,7 @@
         <v>20</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F156" s="5">
         <v>10007</v>
@@ -5399,7 +5401,7 @@
         <v>3</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L156" s="1">
         <v>2</v>
@@ -5407,7 +5409,7 @@
     </row>
     <row r="157" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B157" s="5">
         <v>10002</v>
@@ -5419,7 +5421,7 @@
         <v>20</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F157" s="5">
         <v>10008</v>
@@ -5430,7 +5432,7 @@
         <v>3</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L157" s="1">
         <v>3</v>
@@ -5438,19 +5440,19 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B158" s="5">
         <v>10003</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F158" s="7">
         <v>10009</v>
@@ -5460,24 +5462,24 @@
         <v>190</v>
       </c>
       <c r="O158" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B159" s="5">
         <v>10004</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F159" s="7">
         <v>10005</v>
@@ -5486,19 +5488,19 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B160" s="5">
         <v>10005</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F160" s="7">
         <v>10006</v>
@@ -5507,19 +5509,19 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B161" s="5">
         <v>10006</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F161" s="7">
         <v>10009</v>
@@ -5529,24 +5531,24 @@
         <v>50</v>
       </c>
       <c r="O161" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B162" s="5">
         <v>10007</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F162" s="7">
         <v>10009</v>
@@ -5558,19 +5560,19 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B163" s="5">
         <v>10008</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F163" s="7">
         <v>10009</v>
@@ -5604,7 +5606,7 @@
     </row>
     <row r="166" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B166" s="5">
         <v>11001</v>
@@ -5613,10 +5615,10 @@
         <v>18</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F166" s="7">
         <v>11002</v>
@@ -5625,7 +5627,7 @@
     </row>
     <row r="167" spans="1:15" ht="52" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B167" s="5">
         <v>11002</v>
@@ -5637,7 +5639,7 @@
         <v>20</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F167" s="7">
         <v>11003</v>
@@ -5646,7 +5648,7 @@
         <v>3</v>
       </c>
       <c r="K167" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L167" s="1">
         <v>4</v>
@@ -5654,7 +5656,7 @@
     </row>
     <row r="168" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B168" s="5">
         <v>11002</v>
@@ -5666,7 +5668,7 @@
         <v>20</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F168" s="7">
         <v>11005</v>
@@ -5675,7 +5677,7 @@
         <v>3</v>
       </c>
       <c r="K168" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L168" s="1">
         <v>1</v>
@@ -5683,7 +5685,7 @@
     </row>
     <row r="169" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B169" s="5">
         <v>11002</v>
@@ -5695,7 +5697,7 @@
         <v>20</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F169" s="7">
         <v>11003</v>
@@ -5704,7 +5706,7 @@
         <v>3</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L169" s="1">
         <v>4</v>
@@ -5712,7 +5714,7 @@
     </row>
     <row r="170" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B170" s="5">
         <v>11002</v>
@@ -5724,7 +5726,7 @@
         <v>20</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F170" s="7">
         <v>11003</v>
@@ -5733,7 +5735,7 @@
         <v>3</v>
       </c>
       <c r="K170" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L170" s="1">
         <v>4</v>
@@ -5741,7 +5743,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B171" s="5">
         <v>11003</v>
@@ -5750,10 +5752,10 @@
         <v>18</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F171" s="7">
         <v>11004</v>
@@ -5762,7 +5764,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B172" s="5">
         <v>11004</v>
@@ -5771,10 +5773,10 @@
         <v>18</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F172" s="7">
         <v>11005</v>
@@ -5784,7 +5786,7 @@
         <v>30</v>
       </c>
       <c r="O172" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -5808,7 +5810,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B174" s="5">
         <v>11006</v>
@@ -5817,10 +5819,10 @@
         <v>18</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F174" s="7">
         <v>11007</v>
@@ -5829,7 +5831,7 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B175" s="5">
         <v>11007</v>
@@ -5838,10 +5840,10 @@
         <v>18</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F175" s="7">
         <v>11008</v>
@@ -5850,7 +5852,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B176" s="5">
         <v>11008</v>
@@ -5859,10 +5861,10 @@
         <v>18</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F176" s="7">
         <v>11009</v>
@@ -5872,7 +5874,7 @@
         <v>500</v>
       </c>
       <c r="O176" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -5893,7 +5895,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B179" s="5">
         <v>12001</v>
@@ -5902,7 +5904,7 @@
         <v>18</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F179" s="7">
         <v>12002</v>
@@ -5916,7 +5918,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B181" s="5">
         <v>12002</v>
@@ -5925,7 +5927,7 @@
         <v>14</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F181" s="7">
         <v>12003</v>
@@ -5933,7 +5935,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B182" s="5">
         <v>12003</v>
@@ -5942,7 +5944,7 @@
         <v>14</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F182" s="7">
         <v>12004</v>
@@ -5956,7 +5958,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B184" s="5">
         <v>12004</v>
@@ -5965,7 +5967,7 @@
         <v>13</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F184" s="7">
         <v>12005</v>
@@ -5973,7 +5975,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B185" s="5">
         <v>12005</v>
@@ -5982,7 +5984,7 @@
         <v>13</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F185" s="7">
         <v>12006</v>
@@ -5990,7 +5992,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B186" s="5">
         <v>12006</v>
@@ -5999,7 +6001,7 @@
         <v>13</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F186" s="7">
         <v>12007</v>
@@ -6013,16 +6015,16 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B188" s="5">
         <v>12007</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F188" s="7">
         <v>12008</v>
@@ -6185,63 +6187,63 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
         <v>130</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>131</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>132</v>
       </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" t="s">
-        <v>134</v>
-      </c>
       <c r="J3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" t="s">
         <v>188</v>
-      </c>
-      <c r="H4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" t="s">
         <v>183</v>
-      </c>
-      <c r="G6" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\2026_GGJ\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75206D61-5C02-4BD8-99A5-5B95157FE58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1020B9A-3E3F-4D78-8313-2370CAE6F058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="210">
   <si>
     <t>标志</t>
   </si>
@@ -171,6 +171,9 @@
     <t>冷静面具（平静地告诉他你已经拒绝了策划）</t>
   </si>
   <si>
+    <t>愤怒面具（强烈批判程序）</t>
+  </si>
+  <si>
     <t>快乐面具（肯定他的能力）</t>
   </si>
   <si>
@@ -656,10 +659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爱干干，不干就滚！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你提那个需求我真仔细琢磨了，我觉得真行，就是我们这次时间实在是太紧张了，要不我肯定就塞了，这样吧，明天奶茶我请，这个系统我们下次一定做。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -816,11 +815,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>愤怒面具（强烈批判程序）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>愤怒面具（怒喷策划，叫美术去接着画界面去）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱干干，不干就滚！再让我听见这种话我就扎聋自己的耳朵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1319,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1331,12 +1330,13 @@
     <col min="4" max="4" width="4.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.08984375" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39.81640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="19.90625" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.1796875" style="2" customWidth="1"/>
-    <col min="12" max="14" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="8.7265625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.7265625" style="1"/>
     <col min="15" max="15" width="36.08984375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -1379,7 +1379,7 @@
         <v>38</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>196</v>
@@ -1412,7 +1412,7 @@
       <c r="I2" s="5"/>
       <c r="K2" s="9"/>
       <c r="N2" s="1">
-        <v>600</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1703,7 +1703,10 @@
       <c r="I13" s="5"/>
       <c r="K13" s="9"/>
       <c r="M13" s="1">
-        <v>120</v>
+        <v>70</v>
+      </c>
+      <c r="O13" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1757,7 +1760,7 @@
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1809,9 +1812,6 @@
       <c r="K17" s="9"/>
       <c r="M17" s="1">
         <v>35</v>
-      </c>
-      <c r="O17" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="5">
         <v>2003</v>
@@ -1917,7 +1917,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="5">
         <v>2005</v>
@@ -1928,7 +1928,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="L22" s="1">
         <v>2</v>
@@ -1948,7 +1948,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="5">
         <v>2007</v>
@@ -1959,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L23" s="1">
         <v>3</v>
@@ -1979,7 +1979,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="5">
         <v>2010</v>
@@ -1990,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L24" s="1">
         <v>1</v>
@@ -2010,7 +2010,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" s="5">
         <v>2004</v>
@@ -2034,7 +2034,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="5">
         <v>2012</v>
@@ -2064,7 +2064,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="5">
         <v>2006</v>
@@ -2088,7 +2088,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" s="7">
         <v>2012</v>
@@ -2115,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" s="7">
         <v>2008</v>
@@ -2139,7 +2139,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30" s="7">
         <v>2009</v>
@@ -2163,7 +2163,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31" s="7">
         <v>2012</v>
@@ -2190,7 +2190,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32" s="7">
         <v>2011</v>
@@ -2214,7 +2214,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="5">
         <v>2012</v>
@@ -2224,7 +2224,7 @@
       <c r="I33" s="5"/>
       <c r="K33" s="9"/>
       <c r="M33" s="1">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="O33" t="s">
         <v>200</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F36" s="5">
         <v>3002</v>
@@ -2302,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F37" s="5">
         <v>3003</v>
@@ -2326,7 +2326,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F38" s="5">
         <v>3004</v>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L38" s="1">
         <v>2</v>
@@ -2357,7 +2357,7 @@
         <v>20</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F39" s="5">
         <v>3005</v>
@@ -2368,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L39" s="1">
         <v>3</v>
@@ -2388,7 +2388,7 @@
         <v>20</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F40" s="5">
         <v>3006</v>
@@ -2399,7 +2399,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L40" s="1">
         <v>1</v>
@@ -2419,7 +2419,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F41" s="5">
         <v>3008</v>
@@ -2430,7 +2430,7 @@
         <v>3</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L41" s="1">
         <v>4</v>
@@ -2450,7 +2450,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F42" s="5">
         <v>3010</v>
@@ -2477,7 +2477,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F43" s="5">
         <v>3010</v>
@@ -2504,7 +2504,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F44" s="5">
         <v>3007</v>
@@ -2528,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F45" s="5">
         <v>3010</v>
@@ -2538,7 +2538,7 @@
       <c r="I45" s="5"/>
       <c r="K45" s="9"/>
       <c r="M45" s="1">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="O45" t="s">
         <v>202</v>
@@ -2558,7 +2558,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F46" s="5">
         <v>3009</v>
@@ -2582,7 +2582,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F47" s="5">
         <v>3010</v>
@@ -2606,7 +2606,7 @@
         <v>3010</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2640,13 +2640,13 @@
         <v>4001</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F50" s="5">
         <v>4002</v>
@@ -2664,13 +2664,13 @@
         <v>4002</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="F51" s="5">
         <v>4003</v>
@@ -2694,7 +2694,7 @@
         <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F52" s="5">
         <v>4004</v>
@@ -2705,7 +2705,7 @@
         <v>3</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
@@ -2725,7 +2725,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F53" s="5">
         <v>4008</v>
@@ -2749,7 +2749,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F54" s="5">
         <v>4005</v>
@@ -2760,7 +2760,7 @@
         <v>3</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L54" s="1">
         <v>2</v>
@@ -2780,7 +2780,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F55" s="5">
         <v>4010</v>
@@ -2804,7 +2804,7 @@
         <v>20</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F56" s="5">
         <v>4006</v>
@@ -2815,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L56" s="1">
         <v>4</v>
@@ -2835,7 +2835,7 @@
         <v>20</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F57" s="5">
         <v>4012</v>
@@ -2859,7 +2859,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F58" s="5">
         <v>4007</v>
@@ -2870,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L58" s="1">
         <v>3</v>
@@ -2890,7 +2890,7 @@
         <v>20</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F59" s="5">
         <v>4013</v>
@@ -2908,13 +2908,13 @@
         <v>4008</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F60" s="5">
         <v>4009</v>
@@ -2932,13 +2932,13 @@
         <v>4009</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F61" s="5">
         <v>4014</v>
@@ -2948,7 +2948,7 @@
       <c r="I61" s="5"/>
       <c r="K61" s="9"/>
       <c r="M61" s="1">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="O61" t="s">
         <v>204</v>
@@ -2962,13 +2962,13 @@
         <v>4010</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F62" s="5">
         <v>4011</v>
@@ -2986,13 +2986,13 @@
         <v>4011</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F63" s="5">
         <v>4014</v>
@@ -3013,13 +3013,13 @@
         <v>4012</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F64" s="5">
         <v>4014</v>
@@ -3043,13 +3043,13 @@
         <v>4013</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F65" s="5">
         <v>4014</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" s="5">
         <v>5001</v>
@@ -3107,10 +3107,10 @@
         <v>18</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F68" s="5">
         <v>5002</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" s="5">
         <v>5002</v>
@@ -3134,7 +3134,7 @@
         <v>20</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F69" s="5">
         <v>5003</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" s="5">
         <v>5003</v>
@@ -3158,7 +3158,7 @@
         <v>20</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F70" s="5">
         <v>5004</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="5">
         <v>5004</v>
@@ -3182,7 +3182,7 @@
         <v>20</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F71" s="5">
         <v>5005</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" s="5">
         <v>5005</v>
@@ -3203,10 +3203,10 @@
         <v>18</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F72" s="5">
         <v>5006</v>
@@ -3230,7 +3230,7 @@
         <v>20</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F73" s="5">
         <v>5007</v>
@@ -3241,7 +3241,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L73" s="1">
         <v>3</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B74" s="5">
         <v>5007</v>
@@ -3261,7 +3261,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F74" s="5">
         <v>5011</v>
@@ -3285,7 +3285,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F75" s="5">
         <v>5008</v>
@@ -3296,7 +3296,7 @@
         <v>3</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L75" s="1">
         <v>1</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B76" s="5">
         <v>5008</v>
@@ -3316,7 +3316,7 @@
         <v>20</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F76" s="5">
         <v>5014</v>
@@ -3340,7 +3340,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F77" s="5">
         <v>5009</v>
@@ -3351,7 +3351,7 @@
         <v>3</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L77" s="1">
         <v>4</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B78" s="5">
         <v>5009</v>
@@ -3371,7 +3371,7 @@
         <v>20</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F78" s="5">
         <v>5018</v>
@@ -3395,7 +3395,7 @@
         <v>20</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F79" s="5">
         <v>5010</v>
@@ -3406,7 +3406,7 @@
         <v>3</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L79" s="1">
         <v>2</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B80" s="5">
         <v>5010</v>
@@ -3426,7 +3426,7 @@
         <v>20</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F80" s="5">
         <v>5020</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B81" s="5">
         <v>5011</v>
@@ -3447,10 +3447,10 @@
         <v>18</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F81" s="5">
         <v>5012</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B82" s="5">
         <v>5012</v>
@@ -3471,10 +3471,10 @@
         <v>18</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F82" s="5">
         <v>5013</v>
@@ -3484,7 +3484,7 @@
       <c r="I82" s="5"/>
       <c r="K82" s="9"/>
       <c r="M82" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
@@ -3511,7 +3511,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B84" s="5">
         <v>5014</v>
@@ -3520,10 +3520,10 @@
         <v>18</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F84" s="5">
         <v>5015</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B85" s="5">
         <v>5015</v>
@@ -3544,10 +3544,10 @@
         <v>18</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F85" s="5">
         <v>5016</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B86" s="5">
         <v>5016</v>
@@ -3568,10 +3568,10 @@
         <v>18</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F86" s="5">
         <v>5017</v>
@@ -3581,7 +3581,7 @@
       <c r="I86" s="5"/>
       <c r="K86" s="9"/>
       <c r="M86" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="O86" t="s">
         <v>198</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" s="5">
         <v>5018</v>
@@ -3620,10 +3620,10 @@
         <v>18</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F88" s="5">
         <v>5019</v>
@@ -3633,7 +3633,7 @@
       <c r="I88" s="5"/>
       <c r="K88" s="9"/>
       <c r="M88" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O88" t="s">
         <v>199</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" s="5">
         <v>5020</v>
@@ -3672,10 +3672,10 @@
         <v>18</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F90" s="5">
         <v>5021</v>
@@ -3685,7 +3685,7 @@
       <c r="I90" s="5"/>
       <c r="K90" s="9"/>
       <c r="M90" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -3724,7 +3724,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="5">
         <v>6001</v>
@@ -3733,10 +3733,10 @@
         <v>14</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F93" s="5">
         <v>6002</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" s="5">
         <v>6002</v>
@@ -3757,10 +3757,10 @@
         <v>14</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F94" s="5">
         <v>6003</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B95" s="5">
         <v>6003</v>
@@ -3781,10 +3781,10 @@
         <v>14</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F95" s="5">
         <v>6004</v>
@@ -3808,7 +3808,7 @@
         <v>20</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F96" s="5">
         <v>6005</v>
@@ -3819,7 +3819,7 @@
         <v>3</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L96" s="1">
         <v>3</v>
@@ -3839,7 +3839,7 @@
         <v>20</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F97" s="5">
         <v>6008</v>
@@ -3850,7 +3850,7 @@
         <v>3</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L97" s="1">
         <v>2</v>
@@ -3870,7 +3870,7 @@
         <v>20</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F98" s="5">
         <v>6010</v>
@@ -3881,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L98" s="1">
         <v>4</v>
@@ -3901,7 +3901,7 @@
         <v>20</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F99" s="5">
         <v>6011</v>
@@ -3912,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L99" s="1">
         <v>1</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B100" s="5">
         <v>6005</v>
@@ -3929,10 +3929,10 @@
         <v>14</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F100" s="5">
         <v>6006</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B101" s="5">
         <v>6006</v>
@@ -3953,10 +3953,10 @@
         <v>14</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F101" s="5">
         <v>6007</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B102" s="5">
         <v>6007</v>
@@ -3977,10 +3977,10 @@
         <v>14</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F102" s="5">
         <v>6012</v>
@@ -3990,12 +3990,12 @@
       <c r="I102" s="5"/>
       <c r="K102" s="9"/>
       <c r="M102" s="1">
-        <v>210</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B103" s="5">
         <v>6008</v>
@@ -4004,10 +4004,10 @@
         <v>14</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F103" s="5">
         <v>6009</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B104" s="5">
         <v>6009</v>
@@ -4028,10 +4028,10 @@
         <v>14</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F104" s="5">
         <v>6012</v>
@@ -4041,12 +4041,12 @@
       <c r="I104" s="5"/>
       <c r="K104" s="9"/>
       <c r="M104" s="1">
-        <v>210</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B105" s="5">
         <v>6010</v>
@@ -4055,10 +4055,10 @@
         <v>14</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F105" s="5">
         <v>6012</v>
@@ -4068,7 +4068,7 @@
       <c r="I105" s="5"/>
       <c r="K105" s="9"/>
       <c r="M105" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="O105" t="s">
         <v>201</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B106" s="5">
         <v>6011</v>
@@ -4085,10 +4085,10 @@
         <v>14</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F106" s="5">
         <v>6012</v>
@@ -4098,7 +4098,7 @@
       <c r="I106" s="5"/>
       <c r="K106" s="9"/>
       <c r="M106" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O106" t="s">
         <v>200</v>
@@ -4140,7 +4140,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B109" s="5">
         <v>7001</v>
@@ -4149,10 +4149,10 @@
         <v>13</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F109" s="5">
         <v>7002</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B110" s="5">
         <v>7002</v>
@@ -4173,10 +4173,10 @@
         <v>13</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F110" s="5">
         <v>7003</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B111" s="5">
         <v>7003</v>
@@ -4197,10 +4197,10 @@
         <v>13</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F111" s="5">
         <v>7004</v>
@@ -4224,7 +4224,7 @@
         <v>20</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F112" s="5">
         <v>7005</v>
@@ -4235,7 +4235,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L112" s="1">
         <v>2</v>
@@ -4255,7 +4255,7 @@
         <v>20</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F113" s="5">
         <v>7006</v>
@@ -4266,7 +4266,7 @@
         <v>3</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L113" s="1">
         <v>4</v>
@@ -4286,7 +4286,7 @@
         <v>20</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F114" s="5">
         <v>7008</v>
@@ -4297,7 +4297,7 @@
         <v>3</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L114" s="1">
         <v>1</v>
@@ -4317,7 +4317,7 @@
         <v>20</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F115" s="5">
         <v>7009</v>
@@ -4328,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L115" s="1">
         <v>3</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B116" s="5">
         <v>7005</v>
@@ -4345,10 +4345,10 @@
         <v>13</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F116" s="5">
         <v>7010</v>
@@ -4358,12 +4358,12 @@
       <c r="I116" s="5"/>
       <c r="K116" s="9"/>
       <c r="M116" s="1">
-        <v>210</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B117" s="5">
         <v>7006</v>
@@ -4372,10 +4372,10 @@
         <v>13</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F117" s="5">
         <v>7007</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B118" s="5">
         <v>7007</v>
@@ -4396,10 +4396,10 @@
         <v>13</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F118" s="5">
         <v>7010</v>
@@ -4409,7 +4409,7 @@
       <c r="I118" s="5"/>
       <c r="K118" s="9"/>
       <c r="M118" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="O118" t="s">
         <v>203</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B119" s="5">
         <v>7008</v>
@@ -4426,10 +4426,10 @@
         <v>13</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F119" s="5">
         <v>7010</v>
@@ -4439,7 +4439,7 @@
       <c r="I119" s="5"/>
       <c r="K119" s="9"/>
       <c r="M119" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O119" t="s">
         <v>202</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B120" s="5">
         <v>7009</v>
@@ -4456,10 +4456,10 @@
         <v>13</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F120" s="5">
         <v>7010</v>
@@ -4469,7 +4469,7 @@
       <c r="I120" s="5"/>
       <c r="K120" s="9"/>
       <c r="M120" s="1">
-        <v>210</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -4508,7 +4508,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B123" s="5">
         <v>8001</v>
@@ -4517,10 +4517,10 @@
         <v>14</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F123" s="5">
         <v>8002</v>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B124" s="5">
         <v>8002</v>
@@ -4541,10 +4541,10 @@
         <v>14</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F124" s="5">
         <v>8003</v>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B125" s="5">
         <v>8003</v>
@@ -4565,10 +4565,10 @@
         <v>14</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F125" s="5">
         <v>8004</v>
@@ -4592,7 +4592,7 @@
         <v>20</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F126" s="5">
         <v>8005</v>
@@ -4603,7 +4603,7 @@
         <v>3</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L126" s="1">
         <v>3</v>
@@ -4623,7 +4623,7 @@
         <v>20</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F127" s="5">
         <v>8008</v>
@@ -4634,7 +4634,7 @@
         <v>3</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L127" s="1">
         <v>2</v>
@@ -4654,7 +4654,7 @@
         <v>20</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F128" s="5">
         <v>8010</v>
@@ -4665,7 +4665,7 @@
         <v>3</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L128" s="1">
         <v>4</v>
@@ -4685,7 +4685,7 @@
         <v>20</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F129" s="5">
         <v>8011</v>
@@ -4696,7 +4696,7 @@
         <v>3</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L129" s="1">
         <v>1</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B130" s="5">
         <v>8005</v>
@@ -4713,10 +4713,10 @@
         <v>14</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F130" s="5">
         <v>8006</v>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B131" s="5">
         <v>8006</v>
@@ -4737,10 +4737,10 @@
         <v>14</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F131" s="5">
         <v>8007</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B132" s="5">
         <v>8007</v>
@@ -4761,10 +4761,10 @@
         <v>14</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F132" s="5">
         <v>8012</v>
@@ -4774,12 +4774,12 @@
       <c r="I132" s="5"/>
       <c r="K132" s="9"/>
       <c r="M132" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B133" s="5">
         <v>8008</v>
@@ -4788,10 +4788,10 @@
         <v>14</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F133" s="5">
         <v>8009</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B134" s="5">
         <v>8009</v>
@@ -4812,10 +4812,10 @@
         <v>14</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F134" s="5">
         <v>8012</v>
@@ -4825,12 +4825,12 @@
       <c r="I134" s="5"/>
       <c r="K134" s="9"/>
       <c r="M134" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B135" s="5">
         <v>8010</v>
@@ -4839,10 +4839,10 @@
         <v>14</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F135" s="5">
         <v>8012</v>
@@ -4852,7 +4852,7 @@
       <c r="I135" s="5"/>
       <c r="K135" s="9"/>
       <c r="M135" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O135" t="s">
         <v>201</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B136" s="5">
         <v>8011</v>
@@ -4869,10 +4869,10 @@
         <v>14</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F136" s="5">
         <v>8012</v>
@@ -4882,7 +4882,7 @@
       <c r="I136" s="5"/>
       <c r="K136" s="9"/>
       <c r="M136" s="1">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="O136" t="s">
         <v>200</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B139" s="5">
         <v>9001</v>
@@ -4933,10 +4933,10 @@
         <v>13</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F139" s="5">
         <v>9002</v>
@@ -4948,7 +4948,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B140" s="5">
         <v>9002</v>
@@ -4957,10 +4957,10 @@
         <v>13</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F140" s="5">
         <v>9003</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B141" s="5">
         <v>9003</v>
@@ -4981,10 +4981,10 @@
         <v>13</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F141" s="5">
         <v>9004</v>
@@ -5008,7 +5008,7 @@
         <v>20</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F142" s="5">
         <v>9005</v>
@@ -5019,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L142" s="1">
         <v>2</v>
@@ -5039,7 +5039,7 @@
         <v>20</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F143" s="5">
         <v>9006</v>
@@ -5050,7 +5050,7 @@
         <v>3</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L143" s="1">
         <v>4</v>
@@ -5070,7 +5070,7 @@
         <v>20</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F144" s="5">
         <v>9008</v>
@@ -5081,7 +5081,7 @@
         <v>3</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L144" s="1">
         <v>1</v>
@@ -5101,7 +5101,7 @@
         <v>20</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F145" s="5">
         <v>9009</v>
@@ -5112,7 +5112,7 @@
         <v>3</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L145" s="1">
         <v>3</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B146" s="5">
         <v>9005</v>
@@ -5129,10 +5129,10 @@
         <v>13</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F146" s="5">
         <v>9010</v>
@@ -5142,12 +5142,12 @@
       <c r="I146" s="5"/>
       <c r="K146" s="9"/>
       <c r="M146" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B147" s="5">
         <v>9006</v>
@@ -5156,10 +5156,10 @@
         <v>13</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F147" s="5">
         <v>9007</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B148" s="5">
         <v>9007</v>
@@ -5180,10 +5180,10 @@
         <v>13</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F148" s="5">
         <v>9010</v>
@@ -5193,7 +5193,7 @@
       <c r="I148" s="5"/>
       <c r="K148" s="9"/>
       <c r="M148" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O148" t="s">
         <v>203</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B149" s="5">
         <v>9008</v>
@@ -5210,10 +5210,10 @@
         <v>13</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F149" s="5">
         <v>9010</v>
@@ -5223,7 +5223,7 @@
       <c r="I149" s="5"/>
       <c r="K149" s="9"/>
       <c r="M149" s="1">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="O149" t="s">
         <v>202</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B150" s="5">
         <v>9009</v>
@@ -5240,10 +5240,10 @@
         <v>13</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F150" s="5">
         <v>9010</v>
@@ -5253,7 +5253,7 @@
       <c r="I150" s="5"/>
       <c r="K150" s="9"/>
       <c r="M150" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
@@ -5264,7 +5264,7 @@
         <v>9010</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="7"/>
@@ -5292,19 +5292,19 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B153" s="5">
         <v>10001</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F153" s="5">
         <v>10002</v>
@@ -5328,7 +5328,7 @@
         <v>20</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F154" s="5">
         <v>10003</v>
@@ -5339,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L154" s="1">
         <v>1</v>
@@ -5359,7 +5359,7 @@
         <v>20</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F155" s="5">
         <v>10004</v>
@@ -5370,7 +5370,7 @@
         <v>3</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L155" s="1">
         <v>4</v>
@@ -5390,7 +5390,7 @@
         <v>20</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F156" s="5">
         <v>10007</v>
@@ -5401,7 +5401,7 @@
         <v>3</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L156" s="1">
         <v>2</v>
@@ -5421,7 +5421,7 @@
         <v>20</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F157" s="5">
         <v>10008</v>
@@ -5432,7 +5432,7 @@
         <v>3</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L157" s="1">
         <v>3</v>
@@ -5440,26 +5440,26 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B158" s="5">
         <v>10003</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F158" s="7">
         <v>10009</v>
       </c>
       <c r="K158" s="9"/>
       <c r="M158" s="1">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="O158" t="s">
         <v>204</v>
@@ -5467,19 +5467,19 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B159" s="5">
         <v>10004</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F159" s="7">
         <v>10005</v>
@@ -5488,19 +5488,19 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B160" s="5">
         <v>10005</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F160" s="7">
         <v>10006</v>
@@ -5509,26 +5509,26 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B161" s="5">
         <v>10006</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F161" s="7">
         <v>10009</v>
       </c>
       <c r="K161" s="9"/>
       <c r="M161" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O161" t="s">
         <v>205</v>
@@ -5536,50 +5536,50 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B162" s="5">
         <v>10007</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F162" s="7">
         <v>10009</v>
       </c>
       <c r="K162" s="9"/>
       <c r="M162" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B163" s="5">
         <v>10008</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F163" s="7">
         <v>10009</v>
       </c>
       <c r="K163" s="9"/>
       <c r="M163" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -5606,7 +5606,7 @@
     </row>
     <row r="166" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B166" s="5">
         <v>11001</v>
@@ -5615,10 +5615,10 @@
         <v>18</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F166" s="7">
         <v>11002</v>
@@ -5639,7 +5639,7 @@
         <v>20</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F167" s="7">
         <v>11003</v>
@@ -5668,10 +5668,10 @@
         <v>20</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="F168" s="7">
-        <v>11005</v>
+        <v>11006</v>
       </c>
       <c r="I168" s="13">
         <v>3</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B171" s="5">
         <v>11003</v>
@@ -5752,7 +5752,7 @@
         <v>18</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E171" s="10" t="s">
         <v>174</v>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B172" s="5">
         <v>11004</v>
@@ -5773,7 +5773,7 @@
         <v>18</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E172" s="10" t="s">
         <v>175</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B174" s="5">
         <v>11006</v>
@@ -5819,10 +5819,10 @@
         <v>18</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F174" s="7">
         <v>11007</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B175" s="5">
         <v>11007</v>
@@ -5840,7 +5840,7 @@
         <v>18</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>176</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B176" s="5">
         <v>11008</v>
@@ -5861,7 +5861,7 @@
         <v>18</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>177</v>
@@ -5895,13 +5895,16 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B179" s="5">
         <v>12001</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E179" s="10" t="s">
         <v>190</v>
@@ -5918,7 +5921,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B181" s="5">
         <v>12002</v>
@@ -5926,6 +5929,9 @@
       <c r="C181" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D181" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E181" s="10" t="s">
         <v>191</v>
       </c>
@@ -5935,13 +5941,16 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B182" s="5">
         <v>12003</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E182" s="10" t="s">
         <v>192</v>
@@ -5958,7 +5967,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B184" s="5">
         <v>12004</v>
@@ -5966,6 +5975,9 @@
       <c r="C184" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="D184" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E184" s="10" t="s">
         <v>193</v>
       </c>
@@ -5975,7 +5987,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B185" s="5">
         <v>12005</v>
@@ -5983,6 +5995,9 @@
       <c r="C185" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="D185" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E185" s="10" t="s">
         <v>194</v>
       </c>
@@ -5992,13 +6007,16 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B186" s="5">
         <v>12006</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E186" s="10" t="s">
         <v>195</v>
@@ -6015,16 +6033,19 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B188" s="5">
         <v>12007</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F188" s="7">
         <v>12008</v>
@@ -6187,24 +6208,24 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
         <v>185</v>

--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\2026_GGJ\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1020B9A-3E3F-4D78-8313-2370CAE6F058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A59AC67-2082-4DED-B2CA-D0B46AFCAF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1318,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\2026_GGJ\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A59AC67-2082-4DED-B2CA-D0B46AFCAF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90CD73E-E895-428A-97C4-A7CD970A385E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1318,7 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>

--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\2026_GGJ\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90CD73E-E895-428A-97C4-A7CD970A385E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47832EE-8C1A-4420-A0F7-1A5D5D3BA086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1412,7 +1412,7 @@
       <c r="I2" s="5"/>
       <c r="K2" s="9"/>
       <c r="N2" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
